--- a/UAS_sightings_report_Apr_Jun2017.xlsx
+++ b/UAS_sightings_report_Apr_Jun2017.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcgar\Documents\DATA_SCIENCE\AmericanU\AU_drones_project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64506FD3-ABEA-40E3-9223-AD4DBB6A5024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sightings" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="1059">
   <si>
     <t>State</t>
   </si>
@@ -9191,11 +9197,14 @@
   <si>
     <t>Summary</t>
   </si>
+  <si>
+    <t>WYOMING</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -9239,7 +9248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9257,6 +9266,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9371,16 +9383,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D660" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D660"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D661" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D661" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:E1355">
     <sortCondition descending="1" ref="A1:A1355"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Date of Sighting" dataDxfId="3"/>
-    <tableColumn id="2" name="State" dataDxfId="2"/>
-    <tableColumn id="3" name="City" dataDxfId="1"/>
-    <tableColumn id="7" name="Summary" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date of Sighting" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="State" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="City" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Summary" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9429,7 +9441,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9462,9 +9474,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9497,6 +9526,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9672,21 +9718,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D660"/>
+  <dimension ref="A1:D661"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A659" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B662" sqref="B662"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="19" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="80.7109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.26953125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="80.7265625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9703,7 +9749,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="180">
+    <row r="2" spans="1:4" ht="149.5">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
@@ -9717,7 +9763,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="132">
+    <row r="3" spans="1:4" ht="115">
       <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
@@ -9731,7 +9777,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="132">
+    <row r="4" spans="1:4" ht="126.5">
       <c r="A4" s="4" t="s">
         <v>155</v>
       </c>
@@ -9745,7 +9791,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="132">
+    <row r="5" spans="1:4" ht="126.5">
       <c r="A5" s="4" t="s">
         <v>155</v>
       </c>
@@ -9759,7 +9805,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="180">
+    <row r="6" spans="1:4" ht="172.5">
       <c r="A6" s="4" t="s">
         <v>155</v>
       </c>
@@ -9773,7 +9819,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="168">
+    <row r="7" spans="1:4" ht="161">
       <c r="A7" s="4" t="s">
         <v>155</v>
       </c>
@@ -9787,7 +9833,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="72">
+    <row r="8" spans="1:4" ht="69">
       <c r="A8" s="4" t="s">
         <v>155</v>
       </c>
@@ -9801,7 +9847,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="156">
+    <row r="9" spans="1:4" ht="138">
       <c r="A9" s="4" t="s">
         <v>155</v>
       </c>
@@ -9815,7 +9861,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="168">
+    <row r="10" spans="1:4" ht="149.5">
       <c r="A10" s="4" t="s">
         <v>155</v>
       </c>
@@ -9829,7 +9875,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="96">
+    <row r="11" spans="1:4" ht="92">
       <c r="A11" s="4" t="s">
         <v>150</v>
       </c>
@@ -9843,7 +9889,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="192">
+    <row r="12" spans="1:4" ht="184">
       <c r="A12" s="4" t="s">
         <v>150</v>
       </c>
@@ -9857,7 +9903,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="168">
+    <row r="13" spans="1:4" ht="161">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -9871,7 +9917,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="156">
+    <row r="14" spans="1:4" ht="149.5">
       <c r="A14" s="4" t="s">
         <v>150</v>
       </c>
@@ -9885,7 +9931,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="156">
+    <row r="15" spans="1:4" ht="149.5">
       <c r="A15" s="4" t="s">
         <v>150</v>
       </c>
@@ -9899,7 +9945,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="132">
+    <row r="16" spans="1:4" ht="126.5">
       <c r="A16" s="4" t="s">
         <v>150</v>
       </c>
@@ -9913,7 +9959,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="156">
+    <row r="17" spans="1:4" ht="149.5">
       <c r="A17" s="4" t="s">
         <v>150</v>
       </c>
@@ -9927,7 +9973,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="228">
+    <row r="18" spans="1:4" ht="207">
       <c r="A18" s="4" t="s">
         <v>120</v>
       </c>
@@ -9941,7 +9987,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="204">
+    <row r="19" spans="1:4" ht="195.5">
       <c r="A19" s="4" t="s">
         <v>120</v>
       </c>
@@ -9955,7 +10001,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="144">
+    <row r="20" spans="1:4" ht="138">
       <c r="A20" s="4" t="s">
         <v>120</v>
       </c>
@@ -9969,7 +10015,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="180">
+    <row r="21" spans="1:4" ht="172.5">
       <c r="A21" s="4" t="s">
         <v>120</v>
       </c>
@@ -9983,7 +10029,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60">
+    <row r="22" spans="1:4" ht="57.5">
       <c r="A22" s="4" t="s">
         <v>120</v>
       </c>
@@ -9997,7 +10043,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="180">
+    <row r="23" spans="1:4" ht="172.5">
       <c r="A23" s="4" t="s">
         <v>120</v>
       </c>
@@ -10011,7 +10057,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="192">
+    <row r="24" spans="1:4" ht="172.5">
       <c r="A24" s="4" t="s">
         <v>120</v>
       </c>
@@ -10025,7 +10071,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="204">
+    <row r="25" spans="1:4" ht="184">
       <c r="A25" s="4" t="s">
         <v>120</v>
       </c>
@@ -10039,7 +10085,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="240">
+    <row r="26" spans="1:4" ht="230">
       <c r="A26" s="4" t="s">
         <v>120</v>
       </c>
@@ -10053,7 +10099,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="180">
+    <row r="27" spans="1:4" ht="161">
       <c r="A27" s="4" t="s">
         <v>120</v>
       </c>
@@ -10067,7 +10113,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="168">
+    <row r="28" spans="1:4" ht="161">
       <c r="A28" s="4" t="s">
         <v>120</v>
       </c>
@@ -10081,7 +10127,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="192">
+    <row r="29" spans="1:4" ht="184">
       <c r="A29" s="4" t="s">
         <v>207</v>
       </c>
@@ -10095,7 +10141,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="72">
+    <row r="30" spans="1:4" ht="57.5">
       <c r="A30" s="4" t="s">
         <v>207</v>
       </c>
@@ -10109,7 +10155,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="168">
+    <row r="31" spans="1:4" ht="161">
       <c r="A31" s="4" t="s">
         <v>207</v>
       </c>
@@ -10123,7 +10169,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60">
+    <row r="32" spans="1:4" ht="57.5">
       <c r="A32" s="4" t="s">
         <v>207</v>
       </c>
@@ -10137,7 +10183,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="132">
+    <row r="33" spans="1:4" ht="126.5">
       <c r="A33" s="4" t="s">
         <v>207</v>
       </c>
@@ -10151,7 +10197,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="180">
+    <row r="34" spans="1:4" ht="172.5">
       <c r="A34" s="4" t="s">
         <v>124</v>
       </c>
@@ -10165,7 +10211,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="180">
+    <row r="35" spans="1:4" ht="172.5">
       <c r="A35" s="4" t="s">
         <v>124</v>
       </c>
@@ -10179,7 +10225,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="204">
+    <row r="36" spans="1:4" ht="195.5">
       <c r="A36" s="4" t="s">
         <v>124</v>
       </c>
@@ -10193,7 +10239,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="216">
+    <row r="37" spans="1:4" ht="207">
       <c r="A37" s="4" t="s">
         <v>124</v>
       </c>
@@ -10207,7 +10253,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="204">
+    <row r="38" spans="1:4" ht="184">
       <c r="A38" s="4" t="s">
         <v>124</v>
       </c>
@@ -10221,7 +10267,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="180">
+    <row r="39" spans="1:4" ht="172.5">
       <c r="A39" s="4" t="s">
         <v>124</v>
       </c>
@@ -10235,7 +10281,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="168">
+    <row r="40" spans="1:4" ht="161">
       <c r="A40" s="4" t="s">
         <v>124</v>
       </c>
@@ -10249,7 +10295,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="168">
+    <row r="41" spans="1:4" ht="161">
       <c r="A41" s="4" t="s">
         <v>124</v>
       </c>
@@ -10263,7 +10309,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="216">
+    <row r="42" spans="1:4" ht="195.5">
       <c r="A42" s="4" t="s">
         <v>124</v>
       </c>
@@ -10277,7 +10323,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="180">
+    <row r="43" spans="1:4" ht="161">
       <c r="A43" s="4" t="s">
         <v>124</v>
       </c>
@@ -10291,7 +10337,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="192">
+    <row r="44" spans="1:4" ht="184">
       <c r="A44" s="4" t="s">
         <v>124</v>
       </c>
@@ -10305,7 +10351,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="156">
+    <row r="45" spans="1:4" ht="149.5">
       <c r="A45" s="4" t="s">
         <v>95</v>
       </c>
@@ -10319,7 +10365,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="72">
+    <row r="46" spans="1:4" ht="69">
       <c r="A46" s="4" t="s">
         <v>95</v>
       </c>
@@ -10333,7 +10379,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="180">
+    <row r="47" spans="1:4" ht="161">
       <c r="A47" s="4" t="s">
         <v>95</v>
       </c>
@@ -10347,7 +10393,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="228">
+    <row r="48" spans="1:4" ht="218.5">
       <c r="A48" s="4" t="s">
         <v>95</v>
       </c>
@@ -10361,7 +10407,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="180">
+    <row r="49" spans="1:4" ht="172.5">
       <c r="A49" s="4" t="s">
         <v>95</v>
       </c>
@@ -10375,7 +10421,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="288">
+    <row r="50" spans="1:4" ht="253">
       <c r="A50" s="4" t="s">
         <v>95</v>
       </c>
@@ -10389,7 +10435,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="180">
+    <row r="51" spans="1:4" ht="172.5">
       <c r="A51" s="4" t="s">
         <v>95</v>
       </c>
@@ -10403,7 +10449,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="180">
+    <row r="52" spans="1:4" ht="172.5">
       <c r="A52" s="4" t="s">
         <v>95</v>
       </c>
@@ -10417,7 +10463,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="156">
+    <row r="53" spans="1:4" ht="149.5">
       <c r="A53" s="4" t="s">
         <v>95</v>
       </c>
@@ -10431,7 +10477,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="240">
+    <row r="54" spans="1:4" ht="230">
       <c r="A54" s="4" t="s">
         <v>95</v>
       </c>
@@ -10445,7 +10491,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="168">
+    <row r="55" spans="1:4" ht="161">
       <c r="A55" s="4" t="s">
         <v>95</v>
       </c>
@@ -10459,7 +10505,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="204">
+    <row r="56" spans="1:4" ht="184">
       <c r="A56" s="4" t="s">
         <v>95</v>
       </c>
@@ -10473,7 +10519,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="180">
+    <row r="57" spans="1:4" ht="172.5">
       <c r="A57" s="4" t="s">
         <v>185</v>
       </c>
@@ -10487,7 +10533,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="240">
+    <row r="58" spans="1:4" ht="230">
       <c r="A58" s="4" t="s">
         <v>185</v>
       </c>
@@ -10501,7 +10547,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="192">
+    <row r="59" spans="1:4" ht="172.5">
       <c r="A59" s="4" t="s">
         <v>185</v>
       </c>
@@ -10515,7 +10561,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="168">
+    <row r="60" spans="1:4" ht="161">
       <c r="A60" s="4" t="s">
         <v>185</v>
       </c>
@@ -10529,7 +10575,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="192">
+    <row r="61" spans="1:4" ht="184">
       <c r="A61" s="4" t="s">
         <v>185</v>
       </c>
@@ -10543,7 +10589,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="180">
+    <row r="62" spans="1:4" ht="161">
       <c r="A62" s="4" t="s">
         <v>185</v>
       </c>
@@ -10557,7 +10603,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="84">
+    <row r="63" spans="1:4" ht="80.5">
       <c r="A63" s="4" t="s">
         <v>185</v>
       </c>
@@ -10571,7 +10617,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="192">
+    <row r="64" spans="1:4" ht="184">
       <c r="A64" s="4" t="s">
         <v>185</v>
       </c>
@@ -10585,7 +10631,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="72">
+    <row r="65" spans="1:4" ht="69">
       <c r="A65" s="4" t="s">
         <v>185</v>
       </c>
@@ -10599,7 +10645,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="192">
+    <row r="66" spans="1:4" ht="172.5">
       <c r="A66" s="4" t="s">
         <v>185</v>
       </c>
@@ -10613,7 +10659,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="72">
+    <row r="67" spans="1:4" ht="69">
       <c r="A67" s="4" t="s">
         <v>185</v>
       </c>
@@ -10627,7 +10673,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="180">
+    <row r="68" spans="1:4" ht="161">
       <c r="A68" s="4" t="s">
         <v>185</v>
       </c>
@@ -10641,7 +10687,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="144">
+    <row r="69" spans="1:4" ht="138">
       <c r="A69" s="4" t="s">
         <v>185</v>
       </c>
@@ -10655,7 +10701,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="168">
+    <row r="70" spans="1:4" ht="161">
       <c r="A70" s="4" t="s">
         <v>185</v>
       </c>
@@ -10669,7 +10715,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="84">
+    <row r="71" spans="1:4" ht="80.5">
       <c r="A71" s="4" t="s">
         <v>126</v>
       </c>
@@ -10683,7 +10729,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="84">
+    <row r="72" spans="1:4" ht="80.5">
       <c r="A72" s="4" t="s">
         <v>126</v>
       </c>
@@ -10697,7 +10743,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="84">
+    <row r="73" spans="1:4" ht="69">
       <c r="A73" s="4" t="s">
         <v>126</v>
       </c>
@@ -10711,7 +10757,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="180">
+    <row r="74" spans="1:4" ht="149.5">
       <c r="A74" s="4" t="s">
         <v>126</v>
       </c>
@@ -10725,7 +10771,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="180">
+    <row r="75" spans="1:4" ht="172.5">
       <c r="A75" s="4" t="s">
         <v>126</v>
       </c>
@@ -10739,7 +10785,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="168">
+    <row r="76" spans="1:4" ht="161">
       <c r="A76" s="4" t="s">
         <v>126</v>
       </c>
@@ -10753,7 +10799,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="204">
+    <row r="77" spans="1:4" ht="195.5">
       <c r="A77" s="4" t="s">
         <v>126</v>
       </c>
@@ -10767,7 +10813,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="264">
+    <row r="78" spans="1:4" ht="241.5">
       <c r="A78" s="4" t="s">
         <v>126</v>
       </c>
@@ -10781,7 +10827,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="72">
+    <row r="79" spans="1:4" ht="69">
       <c r="A79" s="4" t="s">
         <v>183</v>
       </c>
@@ -10795,7 +10841,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="168">
+    <row r="80" spans="1:4" ht="161">
       <c r="A80" s="4" t="s">
         <v>183</v>
       </c>
@@ -10809,7 +10855,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="192">
+    <row r="81" spans="1:4" ht="184">
       <c r="A81" s="4" t="s">
         <v>183</v>
       </c>
@@ -10823,7 +10869,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="144">
+    <row r="82" spans="1:4" ht="138">
       <c r="A82" s="4" t="s">
         <v>183</v>
       </c>
@@ -10837,7 +10883,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="168">
+    <row r="83" spans="1:4" ht="161">
       <c r="A83" s="4" t="s">
         <v>164</v>
       </c>
@@ -10851,7 +10897,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="168">
+    <row r="84" spans="1:4" ht="161">
       <c r="A84" s="4" t="s">
         <v>164</v>
       </c>
@@ -10865,7 +10911,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="228">
+    <row r="85" spans="1:4" ht="218.5">
       <c r="A85" s="4" t="s">
         <v>164</v>
       </c>
@@ -10879,7 +10925,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="180">
+    <row r="86" spans="1:4" ht="172.5">
       <c r="A86" s="4" t="s">
         <v>164</v>
       </c>
@@ -10893,7 +10939,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="192">
+    <row r="87" spans="1:4" ht="184">
       <c r="A87" s="4" t="s">
         <v>195</v>
       </c>
@@ -10907,7 +10953,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="192">
+    <row r="88" spans="1:4" ht="184">
       <c r="A88" s="4" t="s">
         <v>195</v>
       </c>
@@ -10921,7 +10967,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="72">
+    <row r="89" spans="1:4" ht="69">
       <c r="A89" s="4" t="s">
         <v>195</v>
       </c>
@@ -10935,7 +10981,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="72">
+    <row r="90" spans="1:4" ht="69">
       <c r="A90" s="4" t="s">
         <v>195</v>
       </c>
@@ -10949,7 +10995,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="192">
+    <row r="91" spans="1:4" ht="172.5">
       <c r="A91" s="4" t="s">
         <v>195</v>
       </c>
@@ -10963,7 +11009,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="168">
+    <row r="92" spans="1:4" ht="161">
       <c r="A92" s="4" t="s">
         <v>195</v>
       </c>
@@ -10977,7 +11023,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="168">
+    <row r="93" spans="1:4" ht="161">
       <c r="A93" s="4" t="s">
         <v>195</v>
       </c>
@@ -10991,7 +11037,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="168">
+    <row r="94" spans="1:4" ht="161">
       <c r="A94" s="4" t="s">
         <v>195</v>
       </c>
@@ -11005,7 +11051,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="192">
+    <row r="95" spans="1:4" ht="184">
       <c r="A95" s="4" t="s">
         <v>195</v>
       </c>
@@ -11019,7 +11065,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="204">
+    <row r="96" spans="1:4" ht="195.5">
       <c r="A96" s="4" t="s">
         <v>195</v>
       </c>
@@ -11033,7 +11079,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="156">
+    <row r="97" spans="1:4" ht="149.5">
       <c r="A97" s="4" t="s">
         <v>195</v>
       </c>
@@ -11047,7 +11093,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="204">
+    <row r="98" spans="1:4" ht="184">
       <c r="A98" s="4" t="s">
         <v>117</v>
       </c>
@@ -11061,7 +11107,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="192">
+    <row r="99" spans="1:4" ht="172.5">
       <c r="A99" s="4" t="s">
         <v>117</v>
       </c>
@@ -11075,7 +11121,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="216">
+    <row r="100" spans="1:4" ht="207">
       <c r="A100" s="4" t="s">
         <v>117</v>
       </c>
@@ -11089,7 +11135,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="96">
+    <row r="101" spans="1:4" ht="92">
       <c r="A101" s="4" t="s">
         <v>117</v>
       </c>
@@ -11103,7 +11149,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="60">
+    <row r="102" spans="1:4" ht="57.5">
       <c r="A102" s="4" t="s">
         <v>117</v>
       </c>
@@ -11117,7 +11163,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="192">
+    <row r="103" spans="1:4" ht="172.5">
       <c r="A103" s="4" t="s">
         <v>142</v>
       </c>
@@ -11131,7 +11177,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="228">
+    <row r="104" spans="1:4" ht="218.5">
       <c r="A104" s="4" t="s">
         <v>142</v>
       </c>
@@ -11145,7 +11191,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="156">
+    <row r="105" spans="1:4" ht="149.5">
       <c r="A105" s="4" t="s">
         <v>142</v>
       </c>
@@ -11159,7 +11205,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="168">
+    <row r="106" spans="1:4" ht="161">
       <c r="A106" s="4" t="s">
         <v>142</v>
       </c>
@@ -11173,7 +11219,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="72">
+    <row r="107" spans="1:4" ht="69">
       <c r="A107" s="4" t="s">
         <v>142</v>
       </c>
@@ -11187,7 +11233,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="192">
+    <row r="108" spans="1:4" ht="184">
       <c r="A108" s="4" t="s">
         <v>142</v>
       </c>
@@ -11201,7 +11247,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="168">
+    <row r="109" spans="1:4" ht="161">
       <c r="A109" s="4" t="s">
         <v>142</v>
       </c>
@@ -11215,7 +11261,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="132">
+    <row r="110" spans="1:4" ht="126.5">
       <c r="A110" s="4" t="s">
         <v>142</v>
       </c>
@@ -11229,7 +11275,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="192">
+    <row r="111" spans="1:4" ht="184">
       <c r="A111" s="4" t="s">
         <v>131</v>
       </c>
@@ -11243,7 +11289,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="192">
+    <row r="112" spans="1:4" ht="184">
       <c r="A112" s="4" t="s">
         <v>131</v>
       </c>
@@ -11257,7 +11303,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="168">
+    <row r="113" spans="1:4" ht="161">
       <c r="A113" s="4" t="s">
         <v>131</v>
       </c>
@@ -11271,7 +11317,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="192">
+    <row r="114" spans="1:4" ht="184">
       <c r="A114" s="4" t="s">
         <v>131</v>
       </c>
@@ -11285,7 +11331,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="168">
+    <row r="115" spans="1:4" ht="161">
       <c r="A115" s="4" t="s">
         <v>131</v>
       </c>
@@ -11299,7 +11345,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="180">
+    <row r="116" spans="1:4" ht="172.5">
       <c r="A116" s="4" t="s">
         <v>131</v>
       </c>
@@ -11313,7 +11359,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="180">
+    <row r="117" spans="1:4" ht="161">
       <c r="A117" s="4" t="s">
         <v>131</v>
       </c>
@@ -11327,7 +11373,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="204">
+    <row r="118" spans="1:4" ht="195.5">
       <c r="A118" s="4" t="s">
         <v>131</v>
       </c>
@@ -11341,7 +11387,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="180">
+    <row r="119" spans="1:4" ht="161">
       <c r="A119" s="4" t="s">
         <v>131</v>
       </c>
@@ -11355,7 +11401,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="192">
+    <row r="120" spans="1:4" ht="172.5">
       <c r="A120" s="4" t="s">
         <v>131</v>
       </c>
@@ -11369,7 +11415,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="192">
+    <row r="121" spans="1:4" ht="184">
       <c r="A121" s="4" t="s">
         <v>131</v>
       </c>
@@ -11383,7 +11429,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="204">
+    <row r="122" spans="1:4" ht="184">
       <c r="A122" s="4" t="s">
         <v>163</v>
       </c>
@@ -11397,7 +11443,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="180">
+    <row r="123" spans="1:4" ht="149.5">
       <c r="A123" s="4" t="s">
         <v>163</v>
       </c>
@@ -11411,7 +11457,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="72">
+    <row r="124" spans="1:4" ht="69">
       <c r="A124" s="4" t="s">
         <v>163</v>
       </c>
@@ -11425,7 +11471,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="204">
+    <row r="125" spans="1:4" ht="184">
       <c r="A125" s="4" t="s">
         <v>163</v>
       </c>
@@ -11439,7 +11485,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="168">
+    <row r="126" spans="1:4" ht="161">
       <c r="A126" s="4" t="s">
         <v>163</v>
       </c>
@@ -11453,7 +11499,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="168">
+    <row r="127" spans="1:4" ht="161">
       <c r="A127" s="4" t="s">
         <v>163</v>
       </c>
@@ -11467,7 +11513,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="168">
+    <row r="128" spans="1:4" ht="161">
       <c r="A128" s="4" t="s">
         <v>163</v>
       </c>
@@ -11481,7 +11527,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="180">
+    <row r="129" spans="1:4" ht="172.5">
       <c r="A129" s="4" t="s">
         <v>163</v>
       </c>
@@ -11495,7 +11541,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="252">
+    <row r="130" spans="1:4" ht="241.5">
       <c r="A130" s="4" t="s">
         <v>163</v>
       </c>
@@ -11509,7 +11555,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="252">
+    <row r="131" spans="1:4" ht="230">
       <c r="A131" s="4" t="s">
         <v>163</v>
       </c>
@@ -11523,7 +11569,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="204">
+    <row r="132" spans="1:4" ht="195.5">
       <c r="A132" s="4" t="s">
         <v>163</v>
       </c>
@@ -11537,7 +11583,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="180">
+    <row r="133" spans="1:4" ht="172.5">
       <c r="A133" s="4" t="s">
         <v>163</v>
       </c>
@@ -11551,7 +11597,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="180">
+    <row r="134" spans="1:4" ht="172.5">
       <c r="A134" s="4" t="s">
         <v>138</v>
       </c>
@@ -11565,7 +11611,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="192">
+    <row r="135" spans="1:4" ht="184">
       <c r="A135" s="4" t="s">
         <v>138</v>
       </c>
@@ -11579,7 +11625,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="252">
+    <row r="136" spans="1:4" ht="241.5">
       <c r="A136" s="4" t="s">
         <v>138</v>
       </c>
@@ -11593,7 +11639,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="180">
+    <row r="137" spans="1:4" ht="172.5">
       <c r="A137" s="4" t="s">
         <v>138</v>
       </c>
@@ -11607,7 +11653,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="96">
+    <row r="138" spans="1:4" ht="92">
       <c r="A138" s="4" t="s">
         <v>138</v>
       </c>
@@ -11621,7 +11667,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="156">
+    <row r="139" spans="1:4" ht="149.5">
       <c r="A139" s="4" t="s">
         <v>138</v>
       </c>
@@ -11635,7 +11681,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="72">
+    <row r="140" spans="1:4" ht="69">
       <c r="A140" s="4" t="s">
         <v>138</v>
       </c>
@@ -11649,7 +11695,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="180">
+    <row r="141" spans="1:4" ht="172.5">
       <c r="A141" s="4" t="s">
         <v>138</v>
       </c>
@@ -11663,7 +11709,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="180">
+    <row r="142" spans="1:4" ht="172.5">
       <c r="A142" s="4" t="s">
         <v>138</v>
       </c>
@@ -11677,7 +11723,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="180">
+    <row r="143" spans="1:4" ht="161">
       <c r="A143" s="4" t="s">
         <v>138</v>
       </c>
@@ -11691,7 +11737,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="168">
+    <row r="144" spans="1:4" ht="161">
       <c r="A144" s="4" t="s">
         <v>138</v>
       </c>
@@ -11705,7 +11751,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="156">
+    <row r="145" spans="1:4" ht="149.5">
       <c r="A145" s="4" t="s">
         <v>138</v>
       </c>
@@ -11719,7 +11765,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="180">
+    <row r="146" spans="1:4" ht="172.5">
       <c r="A146" s="4" t="s">
         <v>116</v>
       </c>
@@ -11733,7 +11779,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="168">
+    <row r="147" spans="1:4" ht="161">
       <c r="A147" s="4" t="s">
         <v>116</v>
       </c>
@@ -11747,7 +11793,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="180">
+    <row r="148" spans="1:4" ht="161">
       <c r="A148" s="4" t="s">
         <v>116</v>
       </c>
@@ -11761,7 +11807,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="132">
+    <row r="149" spans="1:4" ht="126.5">
       <c r="A149" s="4" t="s">
         <v>116</v>
       </c>
@@ -11775,7 +11821,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="156">
+    <row r="150" spans="1:4" ht="138">
       <c r="A150" s="4" t="s">
         <v>116</v>
       </c>
@@ -11789,7 +11835,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="72">
+    <row r="151" spans="1:4" ht="69">
       <c r="A151" s="4" t="s">
         <v>165</v>
       </c>
@@ -11803,7 +11849,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="168">
+    <row r="152" spans="1:4" ht="161">
       <c r="A152" s="4" t="s">
         <v>165</v>
       </c>
@@ -11817,7 +11863,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="168">
+    <row r="153" spans="1:4" ht="149.5">
       <c r="A153" s="4" t="s">
         <v>165</v>
       </c>
@@ -11831,7 +11877,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="348">
+    <row r="154" spans="1:4" ht="333.5">
       <c r="A154" s="4" t="s">
         <v>165</v>
       </c>
@@ -11845,7 +11891,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="72">
+    <row r="155" spans="1:4" ht="69">
       <c r="A155" s="4" t="s">
         <v>165</v>
       </c>
@@ -11859,7 +11905,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="192">
+    <row r="156" spans="1:4" ht="184">
       <c r="A156" s="4" t="s">
         <v>165</v>
       </c>
@@ -11873,7 +11919,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="168">
+    <row r="157" spans="1:4" ht="161">
       <c r="A157" s="4" t="s">
         <v>213</v>
       </c>
@@ -11887,7 +11933,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="168">
+    <row r="158" spans="1:4" ht="161">
       <c r="A158" s="4" t="s">
         <v>213</v>
       </c>
@@ -11901,7 +11947,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="168">
+    <row r="159" spans="1:4" ht="161">
       <c r="A159" s="4" t="s">
         <v>213</v>
       </c>
@@ -11915,7 +11961,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="264">
+    <row r="160" spans="1:4" ht="253">
       <c r="A160" s="4" t="s">
         <v>213</v>
       </c>
@@ -11929,7 +11975,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="204">
+    <row r="161" spans="1:4" ht="184">
       <c r="A161" s="4" t="s">
         <v>213</v>
       </c>
@@ -11943,7 +11989,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="168">
+    <row r="162" spans="1:4" ht="161">
       <c r="A162" s="4" t="s">
         <v>213</v>
       </c>
@@ -11957,7 +12003,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="156">
+    <row r="163" spans="1:4" ht="149.5">
       <c r="A163" s="4" t="s">
         <v>213</v>
       </c>
@@ -11971,7 +12017,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="180">
+    <row r="164" spans="1:4" ht="172.5">
       <c r="A164" s="4" t="s">
         <v>97</v>
       </c>
@@ -11985,7 +12031,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="180">
+    <row r="165" spans="1:4" ht="172.5">
       <c r="A165" s="4" t="s">
         <v>97</v>
       </c>
@@ -11999,7 +12045,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="228">
+    <row r="166" spans="1:4" ht="218.5">
       <c r="A166" s="4" t="s">
         <v>97</v>
       </c>
@@ -12013,7 +12059,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="180">
+    <row r="167" spans="1:4" ht="172.5">
       <c r="A167" s="4" t="s">
         <v>97</v>
       </c>
@@ -12027,7 +12073,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="204">
+    <row r="168" spans="1:4" ht="184">
       <c r="A168" s="4" t="s">
         <v>97</v>
       </c>
@@ -12041,7 +12087,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="180">
+    <row r="169" spans="1:4" ht="172.5">
       <c r="A169" s="4" t="s">
         <v>97</v>
       </c>
@@ -12055,7 +12101,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="180">
+    <row r="170" spans="1:4" ht="161">
       <c r="A170" s="4" t="s">
         <v>97</v>
       </c>
@@ -12069,7 +12115,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="204">
+    <row r="171" spans="1:4" ht="184">
       <c r="A171" s="4" t="s">
         <v>97</v>
       </c>
@@ -12083,7 +12129,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="228">
+    <row r="172" spans="1:4" ht="218.5">
       <c r="A172" s="4" t="s">
         <v>97</v>
       </c>
@@ -12097,7 +12143,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="168">
+    <row r="173" spans="1:4" ht="149.5">
       <c r="A173" s="4" t="s">
         <v>97</v>
       </c>
@@ -12111,7 +12157,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="228">
+    <row r="174" spans="1:4" ht="218.5">
       <c r="A174" s="4" t="s">
         <v>97</v>
       </c>
@@ -12125,7 +12171,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="204">
+    <row r="175" spans="1:4" ht="195.5">
       <c r="A175" s="4" t="s">
         <v>91</v>
       </c>
@@ -12139,7 +12185,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="180">
+    <row r="176" spans="1:4" ht="172.5">
       <c r="A176" s="4" t="s">
         <v>91</v>
       </c>
@@ -12153,7 +12199,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="168">
+    <row r="177" spans="1:4" ht="161">
       <c r="A177" s="4" t="s">
         <v>91</v>
       </c>
@@ -12167,7 +12213,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="168">
+    <row r="178" spans="1:4" ht="161">
       <c r="A178" s="4" t="s">
         <v>91</v>
       </c>
@@ -12181,7 +12227,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="180">
+    <row r="179" spans="1:4" ht="172.5">
       <c r="A179" s="4" t="s">
         <v>91</v>
       </c>
@@ -12195,7 +12241,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="168">
+    <row r="180" spans="1:4" ht="161">
       <c r="A180" s="4" t="s">
         <v>91</v>
       </c>
@@ -12209,7 +12255,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="192">
+    <row r="181" spans="1:4" ht="184">
       <c r="A181" s="4" t="s">
         <v>91</v>
       </c>
@@ -12223,7 +12269,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="192">
+    <row r="182" spans="1:4" ht="184">
       <c r="A182" s="4" t="s">
         <v>91</v>
       </c>
@@ -12237,7 +12283,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="180">
+    <row r="183" spans="1:4" ht="161">
       <c r="A183" s="4" t="s">
         <v>91</v>
       </c>
@@ -12251,7 +12297,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="240">
+    <row r="184" spans="1:4" ht="218.5">
       <c r="A184" s="4" t="s">
         <v>91</v>
       </c>
@@ -12265,7 +12311,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="240">
+    <row r="185" spans="1:4" ht="230">
       <c r="A185" s="4" t="s">
         <v>91</v>
       </c>
@@ -12279,7 +12325,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="216">
+    <row r="186" spans="1:4" ht="207">
       <c r="A186" s="4" t="s">
         <v>91</v>
       </c>
@@ -12293,7 +12339,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="156">
+    <row r="187" spans="1:4" ht="149.5">
       <c r="A187" s="4" t="s">
         <v>91</v>
       </c>
@@ -12307,7 +12353,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="168">
+    <row r="188" spans="1:4" ht="161">
       <c r="A188" s="4" t="s">
         <v>69</v>
       </c>
@@ -12321,7 +12367,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="180">
+    <row r="189" spans="1:4" ht="172.5">
       <c r="A189" s="4" t="s">
         <v>69</v>
       </c>
@@ -12335,7 +12381,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="180">
+    <row r="190" spans="1:4" ht="172.5">
       <c r="A190" s="4" t="s">
         <v>69</v>
       </c>
@@ -12349,7 +12395,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="180">
+    <row r="191" spans="1:4" ht="172.5">
       <c r="A191" s="4" t="s">
         <v>69</v>
       </c>
@@ -12363,7 +12409,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="60">
+    <row r="192" spans="1:4" ht="57.5">
       <c r="A192" s="4" t="s">
         <v>69</v>
       </c>
@@ -12377,7 +12423,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="192">
+    <row r="193" spans="1:4" ht="172.5">
       <c r="A193" s="4" t="s">
         <v>69</v>
       </c>
@@ -12391,7 +12437,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="228">
+    <row r="194" spans="1:4" ht="207">
       <c r="A194" s="4" t="s">
         <v>69</v>
       </c>
@@ -12405,7 +12451,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="192">
+    <row r="195" spans="1:4" ht="184">
       <c r="A195" s="4" t="s">
         <v>69</v>
       </c>
@@ -12419,7 +12465,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="144">
+    <row r="196" spans="1:4" ht="138">
       <c r="A196" s="4" t="s">
         <v>69</v>
       </c>
@@ -12433,7 +12479,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="144">
+    <row r="197" spans="1:4" ht="138">
       <c r="A197" s="4" t="s">
         <v>69</v>
       </c>
@@ -12447,7 +12493,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="180">
+    <row r="198" spans="1:4" ht="172.5">
       <c r="A198" s="4" t="s">
         <v>157</v>
       </c>
@@ -12461,7 +12507,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="156">
+    <row r="199" spans="1:4" ht="149.5">
       <c r="A199" s="4" t="s">
         <v>157</v>
       </c>
@@ -12475,7 +12521,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="180">
+    <row r="200" spans="1:4" ht="172.5">
       <c r="A200" s="4" t="s">
         <v>157</v>
       </c>
@@ -12489,7 +12535,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="168">
+    <row r="201" spans="1:4" ht="161">
       <c r="A201" s="4" t="s">
         <v>157</v>
       </c>
@@ -12503,7 +12549,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="180">
+    <row r="202" spans="1:4" ht="172.5">
       <c r="A202" s="4" t="s">
         <v>157</v>
       </c>
@@ -12517,7 +12563,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="204">
+    <row r="203" spans="1:4" ht="184">
       <c r="A203" s="4" t="s">
         <v>154</v>
       </c>
@@ -12531,7 +12577,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="72">
+    <row r="204" spans="1:4" ht="69">
       <c r="A204" s="4" t="s">
         <v>154</v>
       </c>
@@ -12545,7 +12591,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="168">
+    <row r="205" spans="1:4" ht="161">
       <c r="A205" s="4" t="s">
         <v>154</v>
       </c>
@@ -12559,7 +12605,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="264">
+    <row r="206" spans="1:4" ht="253">
       <c r="A206" s="4" t="s">
         <v>154</v>
       </c>
@@ -12573,7 +12619,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="204">
+    <row r="207" spans="1:4" ht="195.5">
       <c r="A207" s="4" t="s">
         <v>154</v>
       </c>
@@ -12587,7 +12633,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="180">
+    <row r="208" spans="1:4" ht="172.5">
       <c r="A208" s="4" t="s">
         <v>154</v>
       </c>
@@ -12601,7 +12647,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="180">
+    <row r="209" spans="1:4" ht="149.5">
       <c r="A209" s="4" t="s">
         <v>189</v>
       </c>
@@ -12615,7 +12661,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="84">
+    <row r="210" spans="1:4" ht="80.5">
       <c r="A210" s="4" t="s">
         <v>189</v>
       </c>
@@ -12629,7 +12675,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="144">
+    <row r="211" spans="1:4" ht="138">
       <c r="A211" s="4" t="s">
         <v>189</v>
       </c>
@@ -12643,7 +12689,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="168">
+    <row r="212" spans="1:4" ht="161">
       <c r="A212" s="4" t="s">
         <v>320</v>
       </c>
@@ -12657,7 +12703,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="84">
+    <row r="213" spans="1:4" ht="80.5">
       <c r="A213" s="4" t="s">
         <v>320</v>
       </c>
@@ -12671,7 +12717,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="180">
+    <row r="214" spans="1:4" ht="172.5">
       <c r="A214" s="4" t="s">
         <v>320</v>
       </c>
@@ -12685,7 +12731,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="240">
+    <row r="215" spans="1:4" ht="218.5">
       <c r="A215" s="4" t="s">
         <v>147</v>
       </c>
@@ -12699,7 +12745,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="240">
+    <row r="216" spans="1:4" ht="218.5">
       <c r="A216" s="4" t="s">
         <v>147</v>
       </c>
@@ -12713,7 +12759,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="288">
+    <row r="217" spans="1:4" ht="276">
       <c r="A217" s="4" t="s">
         <v>147</v>
       </c>
@@ -12727,7 +12773,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="192">
+    <row r="218" spans="1:4" ht="184">
       <c r="A218" s="4" t="s">
         <v>147</v>
       </c>
@@ -12741,7 +12787,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="252">
+    <row r="219" spans="1:4" ht="241.5">
       <c r="A219" s="4" t="s">
         <v>147</v>
       </c>
@@ -12755,7 +12801,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="192">
+    <row r="220" spans="1:4" ht="172.5">
       <c r="A220" s="4" t="s">
         <v>147</v>
       </c>
@@ -12769,7 +12815,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="180">
+    <row r="221" spans="1:4" ht="161">
       <c r="A221" s="4" t="s">
         <v>147</v>
       </c>
@@ -12783,7 +12829,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="204">
+    <row r="222" spans="1:4" ht="195.5">
       <c r="A222" s="4" t="s">
         <v>147</v>
       </c>
@@ -12797,7 +12843,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="192">
+    <row r="223" spans="1:4" ht="184">
       <c r="A223" s="4" t="s">
         <v>147</v>
       </c>
@@ -12811,7 +12857,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="228">
+    <row r="224" spans="1:4" ht="218.5">
       <c r="A224" s="4" t="s">
         <v>147</v>
       </c>
@@ -12825,7 +12871,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="192">
+    <row r="225" spans="1:4" ht="161">
       <c r="A225" s="4" t="s">
         <v>147</v>
       </c>
@@ -12839,7 +12885,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="168">
+    <row r="226" spans="1:4" ht="161">
       <c r="A226" s="4" t="s">
         <v>147</v>
       </c>
@@ -12853,7 +12899,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="108">
+    <row r="227" spans="1:4" ht="92">
       <c r="A227" s="4" t="s">
         <v>5</v>
       </c>
@@ -12867,7 +12913,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="168">
+    <row r="228" spans="1:4" ht="161">
       <c r="A228" s="4" t="s">
         <v>5</v>
       </c>
@@ -12881,7 +12927,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="180">
+    <row r="229" spans="1:4" ht="172.5">
       <c r="A229" s="4" t="s">
         <v>5</v>
       </c>
@@ -12895,7 +12941,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="168">
+    <row r="230" spans="1:4" ht="149.5">
       <c r="A230" s="4" t="s">
         <v>5</v>
       </c>
@@ -12909,7 +12955,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="168">
+    <row r="231" spans="1:4" ht="161">
       <c r="A231" s="4" t="s">
         <v>5</v>
       </c>
@@ -12923,7 +12969,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="180">
+    <row r="232" spans="1:4" ht="172.5">
       <c r="A232" s="4" t="s">
         <v>5</v>
       </c>
@@ -12937,7 +12983,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="204">
+    <row r="233" spans="1:4" ht="195.5">
       <c r="A233" s="4" t="s">
         <v>5</v>
       </c>
@@ -12951,7 +12997,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="192">
+    <row r="234" spans="1:4" ht="172.5">
       <c r="A234" s="4" t="s">
         <v>5</v>
       </c>
@@ -12965,7 +13011,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="180">
+    <row r="235" spans="1:4" ht="172.5">
       <c r="A235" s="4" t="s">
         <v>5</v>
       </c>
@@ -12979,7 +13025,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="156">
+    <row r="236" spans="1:4" ht="149.5">
       <c r="A236" s="4" t="s">
         <v>5</v>
       </c>
@@ -12993,7 +13039,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="168">
+    <row r="237" spans="1:4" ht="149.5">
       <c r="A237" s="4" t="s">
         <v>5</v>
       </c>
@@ -13007,7 +13053,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="168">
+    <row r="238" spans="1:4" ht="161">
       <c r="A238" s="4" t="s">
         <v>5</v>
       </c>
@@ -13021,7 +13067,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="216">
+    <row r="239" spans="1:4" ht="207">
       <c r="A239" s="4" t="s">
         <v>5</v>
       </c>
@@ -13035,7 +13081,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="216">
+    <row r="240" spans="1:4" ht="195.5">
       <c r="A240" s="4" t="s">
         <v>5</v>
       </c>
@@ -13049,7 +13095,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="204">
+    <row r="241" spans="1:4" ht="195.5">
       <c r="A241" s="4" t="s">
         <v>5</v>
       </c>
@@ -13063,7 +13109,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="216">
+    <row r="242" spans="1:4" ht="207">
       <c r="A242" s="4" t="s">
         <v>5</v>
       </c>
@@ -13077,7 +13123,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="228">
+    <row r="243" spans="1:4" ht="207">
       <c r="A243" s="4" t="s">
         <v>5</v>
       </c>
@@ -13091,7 +13137,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="72">
+    <row r="244" spans="1:4" ht="69">
       <c r="A244" s="4" t="s">
         <v>85</v>
       </c>
@@ -13105,7 +13151,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="180">
+    <row r="245" spans="1:4" ht="172.5">
       <c r="A245" s="4" t="s">
         <v>85</v>
       </c>
@@ -13119,7 +13165,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="168">
+    <row r="246" spans="1:4" ht="161">
       <c r="A246" s="4" t="s">
         <v>85</v>
       </c>
@@ -13133,7 +13179,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="168">
+    <row r="247" spans="1:4" ht="161">
       <c r="A247" s="4" t="s">
         <v>85</v>
       </c>
@@ -13147,7 +13193,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="192">
+    <row r="248" spans="1:4" ht="184">
       <c r="A248" s="4" t="s">
         <v>85</v>
       </c>
@@ -13161,7 +13207,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="180">
+    <row r="249" spans="1:4" ht="172.5">
       <c r="A249" s="4" t="s">
         <v>85</v>
       </c>
@@ -13175,7 +13221,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="240">
+    <row r="250" spans="1:4" ht="230">
       <c r="A250" s="4" t="s">
         <v>85</v>
       </c>
@@ -13189,7 +13235,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="72">
+    <row r="251" spans="1:4" ht="69">
       <c r="A251" s="4" t="s">
         <v>85</v>
       </c>
@@ -13203,7 +13249,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="72">
+    <row r="252" spans="1:4" ht="57.5">
       <c r="A252" s="4" t="s">
         <v>85</v>
       </c>
@@ -13217,7 +13263,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="168">
+    <row r="253" spans="1:4" ht="149.5">
       <c r="A253" s="4" t="s">
         <v>85</v>
       </c>
@@ -13231,7 +13277,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="288">
+    <row r="254" spans="1:4" ht="264.5">
       <c r="A254" s="4" t="s">
         <v>201</v>
       </c>
@@ -13245,7 +13291,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="204">
+    <row r="255" spans="1:4" ht="195.5">
       <c r="A255" s="4" t="s">
         <v>201</v>
       </c>
@@ -13259,7 +13305,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="204">
+    <row r="256" spans="1:4" ht="195.5">
       <c r="A256" s="4" t="s">
         <v>201</v>
       </c>
@@ -13273,7 +13319,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="168">
+    <row r="257" spans="1:4" ht="161">
       <c r="A257" s="4" t="s">
         <v>201</v>
       </c>
@@ -13287,7 +13333,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="192">
+    <row r="258" spans="1:4" ht="184">
       <c r="A258" s="4" t="s">
         <v>201</v>
       </c>
@@ -13301,7 +13347,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="168">
+    <row r="259" spans="1:4" ht="161">
       <c r="A259" s="4" t="s">
         <v>201</v>
       </c>
@@ -13315,7 +13361,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="240">
+    <row r="260" spans="1:4" ht="230">
       <c r="A260" s="4" t="s">
         <v>201</v>
       </c>
@@ -13329,7 +13375,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="168">
+    <row r="261" spans="1:4" ht="161">
       <c r="A261" s="4" t="s">
         <v>201</v>
       </c>
@@ -13343,7 +13389,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="168">
+    <row r="262" spans="1:4" ht="161">
       <c r="A262" s="4" t="s">
         <v>107</v>
       </c>
@@ -13357,7 +13403,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="216">
+    <row r="263" spans="1:4" ht="184">
       <c r="A263" s="4" t="s">
         <v>107</v>
       </c>
@@ -13371,7 +13417,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="180">
+    <row r="264" spans="1:4" ht="172.5">
       <c r="A264" s="4" t="s">
         <v>107</v>
       </c>
@@ -13385,7 +13431,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="180">
+    <row r="265" spans="1:4" ht="172.5">
       <c r="A265" s="4" t="s">
         <v>107</v>
       </c>
@@ -13399,7 +13445,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="180">
+    <row r="266" spans="1:4" ht="161">
       <c r="A266" s="4" t="s">
         <v>107</v>
       </c>
@@ -13413,7 +13459,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="192">
+    <row r="267" spans="1:4" ht="172.5">
       <c r="A267" s="4" t="s">
         <v>107</v>
       </c>
@@ -13427,7 +13473,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="204">
+    <row r="268" spans="1:4" ht="184">
       <c r="A268" s="4" t="s">
         <v>107</v>
       </c>
@@ -13441,7 +13487,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="192">
+    <row r="269" spans="1:4" ht="172.5">
       <c r="A269" s="4" t="s">
         <v>149</v>
       </c>
@@ -13455,7 +13501,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="204">
+    <row r="270" spans="1:4" ht="184">
       <c r="A270" s="4" t="s">
         <v>149</v>
       </c>
@@ -13469,7 +13515,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="60">
+    <row r="271" spans="1:4" ht="57.5">
       <c r="A271" s="4" t="s">
         <v>149</v>
       </c>
@@ -13483,7 +13529,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="192">
+    <row r="272" spans="1:4" ht="172.5">
       <c r="A272" s="4" t="s">
         <v>149</v>
       </c>
@@ -13497,7 +13543,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="192">
+    <row r="273" spans="1:4" ht="184">
       <c r="A273" s="4" t="s">
         <v>162</v>
       </c>
@@ -13511,7 +13557,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="180">
+    <row r="274" spans="1:4" ht="172.5">
       <c r="A274" s="4" t="s">
         <v>162</v>
       </c>
@@ -13525,7 +13571,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="168">
+    <row r="275" spans="1:4" ht="161">
       <c r="A275" s="4" t="s">
         <v>162</v>
       </c>
@@ -13539,7 +13585,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="168">
+    <row r="276" spans="1:4" ht="161">
       <c r="A276" s="4" t="s">
         <v>162</v>
       </c>
@@ -13553,7 +13599,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="204">
+    <row r="277" spans="1:4" ht="195.5">
       <c r="A277" s="4" t="s">
         <v>162</v>
       </c>
@@ -13567,7 +13613,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="192">
+    <row r="278" spans="1:4" ht="184">
       <c r="A278" s="4" t="s">
         <v>162</v>
       </c>
@@ -13581,7 +13627,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="72">
+    <row r="279" spans="1:4" ht="69">
       <c r="A279" s="4" t="s">
         <v>162</v>
       </c>
@@ -13595,7 +13641,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="180">
+    <row r="280" spans="1:4" ht="161">
       <c r="A280" s="4" t="s">
         <v>162</v>
       </c>
@@ -13609,7 +13655,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="264">
+    <row r="281" spans="1:4" ht="241.5">
       <c r="A281" s="4" t="s">
         <v>162</v>
       </c>
@@ -13623,7 +13669,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="180">
+    <row r="282" spans="1:4" ht="161">
       <c r="A282" s="4" t="s">
         <v>162</v>
       </c>
@@ -13637,7 +13683,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="144">
+    <row r="283" spans="1:4" ht="138">
       <c r="A283" s="4" t="s">
         <v>162</v>
       </c>
@@ -13651,7 +13697,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="60">
+    <row r="284" spans="1:4" ht="57.5">
       <c r="A284" s="4" t="s">
         <v>93</v>
       </c>
@@ -13665,7 +13711,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="96">
+    <row r="285" spans="1:4" ht="92">
       <c r="A285" s="4" t="s">
         <v>93</v>
       </c>
@@ -13679,7 +13725,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="168">
+    <row r="286" spans="1:4" ht="161">
       <c r="A286" s="4" t="s">
         <v>93</v>
       </c>
@@ -13693,7 +13739,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="156">
+    <row r="287" spans="1:4" ht="149.5">
       <c r="A287" s="4" t="s">
         <v>93</v>
       </c>
@@ -13707,7 +13753,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="228">
+    <row r="288" spans="1:4" ht="207">
       <c r="A288" s="4" t="s">
         <v>93</v>
       </c>
@@ -13721,7 +13767,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="204">
+    <row r="289" spans="1:4" ht="184">
       <c r="A289" s="4" t="s">
         <v>93</v>
       </c>
@@ -13735,7 +13781,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="180">
+    <row r="290" spans="1:4" ht="172.5">
       <c r="A290" s="4" t="s">
         <v>93</v>
       </c>
@@ -13749,7 +13795,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="168">
+    <row r="291" spans="1:4" ht="149.5">
       <c r="A291" s="4" t="s">
         <v>93</v>
       </c>
@@ -13763,7 +13809,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="96">
+    <row r="292" spans="1:4" ht="92">
       <c r="A292" s="4" t="s">
         <v>93</v>
       </c>
@@ -13777,7 +13823,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="144">
+    <row r="293" spans="1:4" ht="138">
       <c r="A293" s="4" t="s">
         <v>93</v>
       </c>
@@ -13791,7 +13837,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="216">
+    <row r="294" spans="1:4" ht="207">
       <c r="A294" s="4" t="s">
         <v>125</v>
       </c>
@@ -13805,7 +13851,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="204">
+    <row r="295" spans="1:4" ht="195.5">
       <c r="A295" s="4" t="s">
         <v>125</v>
       </c>
@@ -13819,7 +13865,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="156">
+    <row r="296" spans="1:4" ht="149.5">
       <c r="A296" s="4" t="s">
         <v>125</v>
       </c>
@@ -13833,7 +13879,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="180">
+    <row r="297" spans="1:4" ht="161">
       <c r="A297" s="4" t="s">
         <v>125</v>
       </c>
@@ -13847,7 +13893,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="180">
+    <row r="298" spans="1:4" ht="172.5">
       <c r="A298" s="4" t="s">
         <v>125</v>
       </c>
@@ -13861,7 +13907,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="192">
+    <row r="299" spans="1:4" ht="184">
       <c r="A299" s="4" t="s">
         <v>125</v>
       </c>
@@ -13875,7 +13921,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="192">
+    <row r="300" spans="1:4" ht="184">
       <c r="A300" s="4" t="s">
         <v>125</v>
       </c>
@@ -13889,7 +13935,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="228">
+    <row r="301" spans="1:4" ht="218.5">
       <c r="A301" s="4" t="s">
         <v>125</v>
       </c>
@@ -13903,7 +13949,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="216">
+    <row r="302" spans="1:4" ht="207">
       <c r="A302" s="4" t="s">
         <v>125</v>
       </c>
@@ -13917,7 +13963,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="168">
+    <row r="303" spans="1:4" ht="161">
       <c r="A303" s="4" t="s">
         <v>125</v>
       </c>
@@ -13931,7 +13977,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="204">
+    <row r="304" spans="1:4" ht="195.5">
       <c r="A304" s="4" t="s">
         <v>125</v>
       </c>
@@ -13945,7 +13991,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="156">
+    <row r="305" spans="1:4" ht="149.5">
       <c r="A305" s="4" t="s">
         <v>125</v>
       </c>
@@ -13959,7 +14005,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="180">
+    <row r="306" spans="1:4" ht="161">
       <c r="A306" s="4" t="s">
         <v>172</v>
       </c>
@@ -13973,7 +14019,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="168">
+    <row r="307" spans="1:4" ht="161">
       <c r="A307" s="4" t="s">
         <v>172</v>
       </c>
@@ -13987,7 +14033,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="180">
+    <row r="308" spans="1:4" ht="161">
       <c r="A308" s="4" t="s">
         <v>172</v>
       </c>
@@ -14001,7 +14047,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="168">
+    <row r="309" spans="1:4" ht="161">
       <c r="A309" s="4" t="s">
         <v>172</v>
       </c>
@@ -14015,7 +14061,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="192">
+    <row r="310" spans="1:4" ht="184">
       <c r="A310" s="4" t="s">
         <v>172</v>
       </c>
@@ -14029,7 +14075,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="156">
+    <row r="311" spans="1:4" ht="149.5">
       <c r="A311" s="4" t="s">
         <v>172</v>
       </c>
@@ -14043,7 +14089,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="240">
+    <row r="312" spans="1:4" ht="230">
       <c r="A312" s="4" t="s">
         <v>82</v>
       </c>
@@ -14057,7 +14103,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="228">
+    <row r="313" spans="1:4" ht="218.5">
       <c r="A313" s="4" t="s">
         <v>82</v>
       </c>
@@ -14071,7 +14117,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="156">
+    <row r="314" spans="1:4" ht="138">
       <c r="A314" s="4" t="s">
         <v>82</v>
       </c>
@@ -14085,7 +14131,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="192">
+    <row r="315" spans="1:4" ht="184">
       <c r="A315" s="4" t="s">
         <v>82</v>
       </c>
@@ -14099,7 +14145,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="156">
+    <row r="316" spans="1:4" ht="149.5">
       <c r="A316" s="4" t="s">
         <v>82</v>
       </c>
@@ -14113,7 +14159,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="216">
+    <row r="317" spans="1:4" ht="195.5">
       <c r="A317" s="4" t="s">
         <v>245</v>
       </c>
@@ -14127,7 +14173,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="192">
+    <row r="318" spans="1:4" ht="184">
       <c r="A318" s="4" t="s">
         <v>245</v>
       </c>
@@ -14141,7 +14187,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="180">
+    <row r="319" spans="1:4" ht="172.5">
       <c r="A319" s="4" t="s">
         <v>245</v>
       </c>
@@ -14155,7 +14201,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="72">
+    <row r="320" spans="1:4" ht="69">
       <c r="A320" s="4" t="s">
         <v>245</v>
       </c>
@@ -14169,7 +14215,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="180">
+    <row r="321" spans="1:4" ht="161">
       <c r="A321" s="4" t="s">
         <v>236</v>
       </c>
@@ -14183,7 +14229,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="204">
+    <row r="322" spans="1:4" ht="184">
       <c r="A322" s="4" t="s">
         <v>236</v>
       </c>
@@ -14197,7 +14243,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="192">
+    <row r="323" spans="1:4" ht="184">
       <c r="A323" s="4" t="s">
         <v>260</v>
       </c>
@@ -14211,7 +14257,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="168">
+    <row r="324" spans="1:4" ht="161">
       <c r="A324" s="4" t="s">
         <v>260</v>
       </c>
@@ -14225,7 +14271,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="180">
+    <row r="325" spans="1:4" ht="172.5">
       <c r="A325" s="4" t="s">
         <v>260</v>
       </c>
@@ -14239,7 +14285,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="180">
+    <row r="326" spans="1:4" ht="172.5">
       <c r="A326" s="4" t="s">
         <v>260</v>
       </c>
@@ -14253,7 +14299,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="192">
+    <row r="327" spans="1:4" ht="184">
       <c r="A327" s="4" t="s">
         <v>260</v>
       </c>
@@ -14267,7 +14313,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="144">
+    <row r="328" spans="1:4" ht="138">
       <c r="A328" s="4" t="s">
         <v>260</v>
       </c>
@@ -14281,7 +14327,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="132">
+    <row r="329" spans="1:4" ht="126.5">
       <c r="A329" s="4" t="s">
         <v>260</v>
       </c>
@@ -14295,7 +14341,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="144">
+    <row r="330" spans="1:4" ht="138">
       <c r="A330" s="4" t="s">
         <v>260</v>
       </c>
@@ -14309,7 +14355,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="180">
+    <row r="331" spans="1:4" ht="172.5">
       <c r="A331" s="4" t="s">
         <v>74</v>
       </c>
@@ -14323,7 +14369,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="192">
+    <row r="332" spans="1:4" ht="184">
       <c r="A332" s="4" t="s">
         <v>74</v>
       </c>
@@ -14337,7 +14383,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="168">
+    <row r="333" spans="1:4" ht="161">
       <c r="A333" s="4" t="s">
         <v>74</v>
       </c>
@@ -14351,7 +14397,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="180">
+    <row r="334" spans="1:4" ht="172.5">
       <c r="A334" s="4" t="s">
         <v>74</v>
       </c>
@@ -14365,7 +14411,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="156">
+    <row r="335" spans="1:4" ht="149.5">
       <c r="A335" s="4" t="s">
         <v>74</v>
       </c>
@@ -14379,7 +14425,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="216">
+    <row r="336" spans="1:4" ht="207">
       <c r="A336" s="4" t="s">
         <v>74</v>
       </c>
@@ -14393,7 +14439,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="204">
+    <row r="337" spans="1:4" ht="195.5">
       <c r="A337" s="4" t="s">
         <v>74</v>
       </c>
@@ -14407,7 +14453,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="180">
+    <row r="338" spans="1:4" ht="172.5">
       <c r="A338" s="4" t="s">
         <v>74</v>
       </c>
@@ -14421,7 +14467,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="216">
+    <row r="339" spans="1:4" ht="195.5">
       <c r="A339" s="4" t="s">
         <v>74</v>
       </c>
@@ -14435,7 +14481,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="168">
+    <row r="340" spans="1:4" ht="161">
       <c r="A340" s="4" t="s">
         <v>74</v>
       </c>
@@ -14449,7 +14495,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="84">
+    <row r="341" spans="1:4" ht="80.5">
       <c r="A341" s="4" t="s">
         <v>74</v>
       </c>
@@ -14463,7 +14509,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="156">
+    <row r="342" spans="1:4" ht="149.5">
       <c r="A342" s="4" t="s">
         <v>74</v>
       </c>
@@ -14477,7 +14523,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="156">
+    <row r="343" spans="1:4" ht="149.5">
       <c r="A343" s="4" t="s">
         <v>74</v>
       </c>
@@ -14491,7 +14537,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="180">
+    <row r="344" spans="1:4" ht="172.5">
       <c r="A344" s="4" t="s">
         <v>121</v>
       </c>
@@ -14505,7 +14551,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="168">
+    <row r="345" spans="1:4" ht="161">
       <c r="A345" s="4" t="s">
         <v>121</v>
       </c>
@@ -14519,7 +14565,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="228">
+    <row r="346" spans="1:4" ht="207">
       <c r="A346" s="4" t="s">
         <v>121</v>
       </c>
@@ -14533,7 +14579,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="264">
+    <row r="347" spans="1:4" ht="253">
       <c r="A347" s="4" t="s">
         <v>121</v>
       </c>
@@ -14547,7 +14593,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="192">
+    <row r="348" spans="1:4" ht="184">
       <c r="A348" s="4" t="s">
         <v>121</v>
       </c>
@@ -14561,7 +14607,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="252">
+    <row r="349" spans="1:4" ht="230">
       <c r="A349" s="4" t="s">
         <v>121</v>
       </c>
@@ -14575,7 +14621,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="180">
+    <row r="350" spans="1:4" ht="172.5">
       <c r="A350" s="4" t="s">
         <v>121</v>
       </c>
@@ -14589,7 +14635,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="168">
+    <row r="351" spans="1:4" ht="161">
       <c r="A351" s="4" t="s">
         <v>121</v>
       </c>
@@ -14603,7 +14649,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="168">
+    <row r="352" spans="1:4" ht="161">
       <c r="A352" s="4" t="s">
         <v>121</v>
       </c>
@@ -14617,7 +14663,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="168">
+    <row r="353" spans="1:4" ht="161">
       <c r="A353" s="4" t="s">
         <v>121</v>
       </c>
@@ -14631,7 +14677,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="204">
+    <row r="354" spans="1:4" ht="195.5">
       <c r="A354" s="4" t="s">
         <v>121</v>
       </c>
@@ -14645,7 +14691,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="192">
+    <row r="355" spans="1:4" ht="184">
       <c r="A355" s="4" t="s">
         <v>121</v>
       </c>
@@ -14659,7 +14705,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="84">
+    <row r="356" spans="1:4" ht="69">
       <c r="A356" s="4" t="s">
         <v>121</v>
       </c>
@@ -14673,7 +14719,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="180">
+    <row r="357" spans="1:4" ht="172.5">
       <c r="A357" s="4" t="s">
         <v>121</v>
       </c>
@@ -14687,7 +14733,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="84">
+    <row r="358" spans="1:4" ht="80.5">
       <c r="A358" s="4" t="s">
         <v>121</v>
       </c>
@@ -14701,7 +14747,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="192">
+    <row r="359" spans="1:4" ht="184">
       <c r="A359" s="4" t="s">
         <v>121</v>
       </c>
@@ -14715,7 +14761,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="192">
+    <row r="360" spans="1:4" ht="172.5">
       <c r="A360" s="4" t="s">
         <v>121</v>
       </c>
@@ -14729,7 +14775,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="180">
+    <row r="361" spans="1:4" ht="172.5">
       <c r="A361" s="4" t="s">
         <v>121</v>
       </c>
@@ -14743,7 +14789,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="132">
+    <row r="362" spans="1:4" ht="126.5">
       <c r="A362" s="4" t="s">
         <v>121</v>
       </c>
@@ -14757,7 +14803,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="180">
+    <row r="363" spans="1:4" ht="172.5">
       <c r="A363" s="4" t="s">
         <v>153</v>
       </c>
@@ -14771,7 +14817,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="168">
+    <row r="364" spans="1:4" ht="161">
       <c r="A364" s="4" t="s">
         <v>153</v>
       </c>
@@ -14785,7 +14831,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="144">
+    <row r="365" spans="1:4" ht="138">
       <c r="A365" s="4" t="s">
         <v>153</v>
       </c>
@@ -14799,7 +14845,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="228">
+    <row r="366" spans="1:4" ht="207">
       <c r="A366" s="4" t="s">
         <v>153</v>
       </c>
@@ -14813,7 +14859,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="168">
+    <row r="367" spans="1:4" ht="161">
       <c r="A367" s="4" t="s">
         <v>153</v>
       </c>
@@ -14827,7 +14873,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="168">
+    <row r="368" spans="1:4" ht="161">
       <c r="A368" s="4" t="s">
         <v>67</v>
       </c>
@@ -14841,7 +14887,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="180">
+    <row r="369" spans="1:4" ht="172.5">
       <c r="A369" s="4" t="s">
         <v>67</v>
       </c>
@@ -14855,7 +14901,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="72">
+    <row r="370" spans="1:4" ht="69">
       <c r="A370" s="4" t="s">
         <v>67</v>
       </c>
@@ -14869,7 +14915,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="168">
+    <row r="371" spans="1:4" ht="161">
       <c r="A371" s="4" t="s">
         <v>67</v>
       </c>
@@ -14883,7 +14929,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="192">
+    <row r="372" spans="1:4" ht="172.5">
       <c r="A372" s="4" t="s">
         <v>67</v>
       </c>
@@ -14897,7 +14943,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="180">
+    <row r="373" spans="1:4" ht="172.5">
       <c r="A373" s="4" t="s">
         <v>67</v>
       </c>
@@ -14911,7 +14957,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="168">
+    <row r="374" spans="1:4" ht="161">
       <c r="A374" s="4" t="s">
         <v>67</v>
       </c>
@@ -14925,7 +14971,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="168">
+    <row r="375" spans="1:4" ht="161">
       <c r="A375" s="4" t="s">
         <v>67</v>
       </c>
@@ -14939,7 +14985,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="144">
+    <row r="376" spans="1:4" ht="138">
       <c r="A376" s="4" t="s">
         <v>67</v>
       </c>
@@ -14953,7 +14999,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="156">
+    <row r="377" spans="1:4" ht="149.5">
       <c r="A377" s="4" t="s">
         <v>67</v>
       </c>
@@ -14967,7 +15013,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="204">
+    <row r="378" spans="1:4" ht="195.5">
       <c r="A378" s="4" t="s">
         <v>67</v>
       </c>
@@ -14981,7 +15027,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="204">
+    <row r="379" spans="1:4" ht="195.5">
       <c r="A379" s="4" t="s">
         <v>114</v>
       </c>
@@ -14995,7 +15041,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="168">
+    <row r="380" spans="1:4" ht="161">
       <c r="A380" s="4" t="s">
         <v>114</v>
       </c>
@@ -15009,7 +15055,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="180">
+    <row r="381" spans="1:4" ht="172.5">
       <c r="A381" s="4" t="s">
         <v>114</v>
       </c>
@@ -15023,7 +15069,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="228">
+    <row r="382" spans="1:4" ht="218.5">
       <c r="A382" s="4" t="s">
         <v>114</v>
       </c>
@@ -15037,7 +15083,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="156">
+    <row r="383" spans="1:4" ht="149.5">
       <c r="A383" s="4" t="s">
         <v>114</v>
       </c>
@@ -15051,7 +15097,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="144">
+    <row r="384" spans="1:4" ht="138">
       <c r="A384" s="4" t="s">
         <v>114</v>
       </c>
@@ -15065,7 +15111,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="168">
+    <row r="385" spans="1:4" ht="161">
       <c r="A385" s="4" t="s">
         <v>193</v>
       </c>
@@ -15079,7 +15125,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="168">
+    <row r="386" spans="1:4" ht="161">
       <c r="A386" s="4" t="s">
         <v>193</v>
       </c>
@@ -15093,7 +15139,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="204">
+    <row r="387" spans="1:4" ht="195.5">
       <c r="A387" s="4" t="s">
         <v>193</v>
       </c>
@@ -15107,7 +15153,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="168">
+    <row r="388" spans="1:4" ht="161">
       <c r="A388" s="4" t="s">
         <v>193</v>
       </c>
@@ -15121,7 +15167,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="168">
+    <row r="389" spans="1:4" ht="161">
       <c r="A389" s="4" t="s">
         <v>241</v>
       </c>
@@ -15135,7 +15181,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="84">
+    <row r="390" spans="1:4" ht="80.5">
       <c r="A390" s="4" t="s">
         <v>241</v>
       </c>
@@ -15149,7 +15195,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="180">
+    <row r="391" spans="1:4" ht="172.5">
       <c r="A391" s="4" t="s">
         <v>241</v>
       </c>
@@ -15163,7 +15209,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="192">
+    <row r="392" spans="1:4" ht="184">
       <c r="A392" s="4" t="s">
         <v>241</v>
       </c>
@@ -15177,7 +15223,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="168">
+    <row r="393" spans="1:4" ht="161">
       <c r="A393" s="4" t="s">
         <v>241</v>
       </c>
@@ -15191,7 +15237,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="168">
+    <row r="394" spans="1:4" ht="161">
       <c r="A394" s="4" t="s">
         <v>241</v>
       </c>
@@ -15205,7 +15251,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="192">
+    <row r="395" spans="1:4" ht="172.5">
       <c r="A395" s="4" t="s">
         <v>241</v>
       </c>
@@ -15219,7 +15265,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="192">
+    <row r="396" spans="1:4" ht="184">
       <c r="A396" s="4" t="s">
         <v>241</v>
       </c>
@@ -15233,7 +15279,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="204">
+    <row r="397" spans="1:4" ht="195.5">
       <c r="A397" s="4" t="s">
         <v>241</v>
       </c>
@@ -15247,7 +15293,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="144">
+    <row r="398" spans="1:4" ht="138">
       <c r="A398" s="4" t="s">
         <v>241</v>
       </c>
@@ -15261,7 +15307,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="192">
+    <row r="399" spans="1:4" ht="184">
       <c r="A399" s="4" t="s">
         <v>173</v>
       </c>
@@ -15275,7 +15321,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="60">
+    <row r="400" spans="1:4" ht="57.5">
       <c r="A400" s="4" t="s">
         <v>173</v>
       </c>
@@ -15289,7 +15335,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="168">
+    <row r="401" spans="1:4" ht="161">
       <c r="A401" s="4" t="s">
         <v>173</v>
       </c>
@@ -15303,7 +15349,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="192">
+    <row r="402" spans="1:4" ht="172.5">
       <c r="A402" s="4" t="s">
         <v>173</v>
       </c>
@@ -15317,7 +15363,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="192">
+    <row r="403" spans="1:4" ht="184">
       <c r="A403" s="4" t="s">
         <v>173</v>
       </c>
@@ -15331,7 +15377,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="168">
+    <row r="404" spans="1:4" ht="161">
       <c r="A404" s="4" t="s">
         <v>173</v>
       </c>
@@ -15345,7 +15391,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="180">
+    <row r="405" spans="1:4" ht="161">
       <c r="A405" s="4" t="s">
         <v>173</v>
       </c>
@@ -15359,7 +15405,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="264">
+    <row r="406" spans="1:4" ht="241.5">
       <c r="A406" s="4" t="s">
         <v>173</v>
       </c>
@@ -15373,7 +15419,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="156">
+    <row r="407" spans="1:4" ht="149.5">
       <c r="A407" s="4" t="s">
         <v>173</v>
       </c>
@@ -15387,7 +15433,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="204">
+    <row r="408" spans="1:4" ht="184">
       <c r="A408" s="4" t="s">
         <v>173</v>
       </c>
@@ -15401,7 +15447,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="192">
+    <row r="409" spans="1:4" ht="184">
       <c r="A409" s="4" t="s">
         <v>173</v>
       </c>
@@ -15415,7 +15461,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="84">
+    <row r="410" spans="1:4" ht="80.5">
       <c r="A410" s="4" t="s">
         <v>169</v>
       </c>
@@ -15429,7 +15475,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="180">
+    <row r="411" spans="1:4" ht="172.5">
       <c r="A411" s="4" t="s">
         <v>169</v>
       </c>
@@ -15443,7 +15489,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="84">
+    <row r="412" spans="1:4" ht="80.5">
       <c r="A412" s="4" t="s">
         <v>169</v>
       </c>
@@ -15457,7 +15503,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="180">
+    <row r="413" spans="1:4" ht="172.5">
       <c r="A413" s="4" t="s">
         <v>169</v>
       </c>
@@ -15471,7 +15517,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="168">
+    <row r="414" spans="1:4" ht="161">
       <c r="A414" s="4" t="s">
         <v>169</v>
       </c>
@@ -15485,7 +15531,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="192">
+    <row r="415" spans="1:4" ht="184">
       <c r="A415" s="4" t="s">
         <v>169</v>
       </c>
@@ -15499,7 +15545,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="252">
+    <row r="416" spans="1:4" ht="230">
       <c r="A416" s="4" t="s">
         <v>169</v>
       </c>
@@ -15513,7 +15559,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="168">
+    <row r="417" spans="1:4" ht="149.5">
       <c r="A417" s="4" t="s">
         <v>169</v>
       </c>
@@ -15527,7 +15573,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="192">
+    <row r="418" spans="1:4" ht="184">
       <c r="A418" s="4" t="s">
         <v>254</v>
       </c>
@@ -15541,7 +15587,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="192">
+    <row r="419" spans="1:4" ht="184">
       <c r="A419" s="4" t="s">
         <v>254</v>
       </c>
@@ -15555,7 +15601,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="180">
+    <row r="420" spans="1:4" ht="172.5">
       <c r="A420" s="4" t="s">
         <v>254</v>
       </c>
@@ -15569,7 +15615,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="120">
+    <row r="421" spans="1:4" ht="115">
       <c r="A421" s="4" t="s">
         <v>254</v>
       </c>
@@ -15583,7 +15629,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="144">
+    <row r="422" spans="1:4" ht="138">
       <c r="A422" s="4" t="s">
         <v>254</v>
       </c>
@@ -15597,7 +15643,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="168">
+    <row r="423" spans="1:4" ht="161">
       <c r="A423" s="4" t="s">
         <v>174</v>
       </c>
@@ -15611,7 +15657,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="204">
+    <row r="424" spans="1:4" ht="195.5">
       <c r="A424" s="4" t="s">
         <v>174</v>
       </c>
@@ -15625,7 +15671,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="372">
+    <row r="425" spans="1:4" ht="345">
       <c r="A425" s="4" t="s">
         <v>174</v>
       </c>
@@ -15639,7 +15685,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="72">
+    <row r="426" spans="1:4" ht="69">
       <c r="A426" s="4" t="s">
         <v>174</v>
       </c>
@@ -15653,7 +15699,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="192">
+    <row r="427" spans="1:4" ht="184">
       <c r="A427" s="4" t="s">
         <v>338</v>
       </c>
@@ -15667,7 +15713,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="156">
+    <row r="428" spans="1:4" ht="149.5">
       <c r="A428" s="4" t="s">
         <v>338</v>
       </c>
@@ -15681,7 +15727,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="180">
+    <row r="429" spans="1:4" ht="172.5">
       <c r="A429" s="4" t="s">
         <v>338</v>
       </c>
@@ -15695,7 +15741,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="144">
+    <row r="430" spans="1:4" ht="138">
       <c r="A430" s="4" t="s">
         <v>338</v>
       </c>
@@ -15709,7 +15755,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="216">
+    <row r="431" spans="1:4" ht="207">
       <c r="A431" s="4" t="s">
         <v>338</v>
       </c>
@@ -15723,7 +15769,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="228">
+    <row r="432" spans="1:4" ht="218.5">
       <c r="A432" s="4" t="s">
         <v>166</v>
       </c>
@@ -15737,7 +15783,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="192">
+    <row r="433" spans="1:4" ht="184">
       <c r="A433" s="4" t="s">
         <v>166</v>
       </c>
@@ -15751,7 +15797,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="192">
+    <row r="434" spans="1:4" ht="184">
       <c r="A434" s="4" t="s">
         <v>166</v>
       </c>
@@ -15765,7 +15811,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="84">
+    <row r="435" spans="1:4" ht="80.5">
       <c r="A435" s="4" t="s">
         <v>166</v>
       </c>
@@ -15779,7 +15825,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="144">
+    <row r="436" spans="1:4" ht="138">
       <c r="A436" s="4" t="s">
         <v>166</v>
       </c>
@@ -15793,7 +15839,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="180">
+    <row r="437" spans="1:4" ht="172.5">
       <c r="A437" s="4" t="s">
         <v>99</v>
       </c>
@@ -15807,7 +15853,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="204">
+    <row r="438" spans="1:4" ht="172.5">
       <c r="A438" s="4" t="s">
         <v>99</v>
       </c>
@@ -15821,7 +15867,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="180">
+    <row r="439" spans="1:4" ht="172.5">
       <c r="A439" s="4" t="s">
         <v>235</v>
       </c>
@@ -15835,7 +15881,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="180">
+    <row r="440" spans="1:4" ht="172.5">
       <c r="A440" s="4" t="s">
         <v>235</v>
       </c>
@@ -15849,7 +15895,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="84">
+    <row r="441" spans="1:4" ht="80.5">
       <c r="A441" s="4" t="s">
         <v>235</v>
       </c>
@@ -15863,7 +15909,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="180">
+    <row r="442" spans="1:4" ht="172.5">
       <c r="A442" s="4" t="s">
         <v>235</v>
       </c>
@@ -15877,7 +15923,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="216">
+    <row r="443" spans="1:4" ht="195.5">
       <c r="A443" s="4" t="s">
         <v>235</v>
       </c>
@@ -15891,7 +15937,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="204">
+    <row r="444" spans="1:4" ht="184">
       <c r="A444" s="4" t="s">
         <v>235</v>
       </c>
@@ -15905,7 +15951,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="228">
+    <row r="445" spans="1:4" ht="207">
       <c r="A445" s="4" t="s">
         <v>235</v>
       </c>
@@ -15919,7 +15965,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="204">
+    <row r="446" spans="1:4" ht="195.5">
       <c r="A446" s="4" t="s">
         <v>235</v>
       </c>
@@ -15933,7 +15979,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="132">
+    <row r="447" spans="1:4" ht="126.5">
       <c r="A447" s="4" t="s">
         <v>235</v>
       </c>
@@ -15947,7 +15993,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="180">
+    <row r="448" spans="1:4" ht="172.5">
       <c r="A448" s="4" t="s">
         <v>102</v>
       </c>
@@ -15961,7 +16007,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="216">
+    <row r="449" spans="1:4" ht="195.5">
       <c r="A449" s="4" t="s">
         <v>102</v>
       </c>
@@ -15975,7 +16021,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="216">
+    <row r="450" spans="1:4" ht="195.5">
       <c r="A450" s="4" t="s">
         <v>102</v>
       </c>
@@ -15989,7 +16035,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="72">
+    <row r="451" spans="1:4" ht="69">
       <c r="A451" s="4" t="s">
         <v>102</v>
       </c>
@@ -16003,7 +16049,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="192">
+    <row r="452" spans="1:4" ht="184">
       <c r="A452" s="4" t="s">
         <v>102</v>
       </c>
@@ -16017,7 +16063,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="144">
+    <row r="453" spans="1:4" ht="138">
       <c r="A453" s="4" t="s">
         <v>102</v>
       </c>
@@ -16031,7 +16077,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="192">
+    <row r="454" spans="1:4" ht="184">
       <c r="A454" s="4" t="s">
         <v>102</v>
       </c>
@@ -16045,7 +16091,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="204">
+    <row r="455" spans="1:4" ht="195.5">
       <c r="A455" s="4" t="s">
         <v>89</v>
       </c>
@@ -16059,7 +16105,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="168">
+    <row r="456" spans="1:4" ht="161">
       <c r="A456" s="4" t="s">
         <v>89</v>
       </c>
@@ -16073,7 +16119,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="216">
+    <row r="457" spans="1:4" ht="195.5">
       <c r="A457" s="4" t="s">
         <v>89</v>
       </c>
@@ -16087,7 +16133,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="84">
+    <row r="458" spans="1:4" ht="69">
       <c r="A458" s="4" t="s">
         <v>89</v>
       </c>
@@ -16101,7 +16147,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="204">
+    <row r="459" spans="1:4" ht="184">
       <c r="A459" s="4" t="s">
         <v>263</v>
       </c>
@@ -16115,7 +16161,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="168">
+    <row r="460" spans="1:4" ht="161">
       <c r="A460" s="4" t="s">
         <v>263</v>
       </c>
@@ -16129,7 +16175,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="264">
+    <row r="461" spans="1:4" ht="253">
       <c r="A461" s="4" t="s">
         <v>263</v>
       </c>
@@ -16143,7 +16189,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="72">
+    <row r="462" spans="1:4" ht="69">
       <c r="A462" s="4" t="s">
         <v>263</v>
       </c>
@@ -16157,7 +16203,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="168">
+    <row r="463" spans="1:4" ht="161">
       <c r="A463" s="4" t="s">
         <v>263</v>
       </c>
@@ -16171,7 +16217,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="168">
+    <row r="464" spans="1:4" ht="149.5">
       <c r="A464" s="4" t="s">
         <v>263</v>
       </c>
@@ -16185,7 +16231,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="120">
+    <row r="465" spans="1:4" ht="115">
       <c r="A465" s="4" t="s">
         <v>263</v>
       </c>
@@ -16199,7 +16245,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="180">
+    <row r="466" spans="1:4" ht="161">
       <c r="A466" s="4" t="s">
         <v>220</v>
       </c>
@@ -16213,7 +16259,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="204">
+    <row r="467" spans="1:4" ht="184">
       <c r="A467" s="4" t="s">
         <v>220</v>
       </c>
@@ -16227,7 +16273,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="168">
+    <row r="468" spans="1:4" ht="161">
       <c r="A468" s="4" t="s">
         <v>220</v>
       </c>
@@ -16241,7 +16287,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="72">
+    <row r="469" spans="1:4" ht="69">
       <c r="A469" s="4" t="s">
         <v>171</v>
       </c>
@@ -16255,7 +16301,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="72">
+    <row r="470" spans="1:4" ht="69">
       <c r="A470" s="4" t="s">
         <v>171</v>
       </c>
@@ -16269,7 +16315,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="192">
+    <row r="471" spans="1:4" ht="161">
       <c r="A471" s="4" t="s">
         <v>171</v>
       </c>
@@ -16283,7 +16329,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="180">
+    <row r="472" spans="1:4" ht="172.5">
       <c r="A472" s="4" t="s">
         <v>171</v>
       </c>
@@ -16297,7 +16343,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="192">
+    <row r="473" spans="1:4" ht="184">
       <c r="A473" s="4" t="s">
         <v>171</v>
       </c>
@@ -16311,7 +16357,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="180">
+    <row r="474" spans="1:4" ht="172.5">
       <c r="A474" s="4" t="s">
         <v>171</v>
       </c>
@@ -16325,7 +16371,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="204">
+    <row r="475" spans="1:4" ht="195.5">
       <c r="A475" s="4" t="s">
         <v>171</v>
       </c>
@@ -16339,7 +16385,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="84">
+    <row r="476" spans="1:4" ht="69">
       <c r="A476" s="4" t="s">
         <v>171</v>
       </c>
@@ -16353,7 +16399,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="84">
+    <row r="477" spans="1:4" ht="80.5">
       <c r="A477" s="4" t="s">
         <v>171</v>
       </c>
@@ -16367,7 +16413,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="168">
+    <row r="478" spans="1:4" ht="161">
       <c r="A478" s="4" t="s">
         <v>92</v>
       </c>
@@ -16381,7 +16427,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="180">
+    <row r="479" spans="1:4" ht="172.5">
       <c r="A479" s="4" t="s">
         <v>92</v>
       </c>
@@ -16395,7 +16441,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="216">
+    <row r="480" spans="1:4" ht="195.5">
       <c r="A480" s="4" t="s">
         <v>92</v>
       </c>
@@ -16409,7 +16455,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="252">
+    <row r="481" spans="1:4" ht="230">
       <c r="A481" s="4" t="s">
         <v>92</v>
       </c>
@@ -16423,7 +16469,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="168">
+    <row r="482" spans="1:4" ht="161">
       <c r="A482" s="4" t="s">
         <v>92</v>
       </c>
@@ -16437,7 +16483,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="216">
+    <row r="483" spans="1:4" ht="207">
       <c r="A483" s="4" t="s">
         <v>92</v>
       </c>
@@ -16451,7 +16497,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="84">
+    <row r="484" spans="1:4" ht="69">
       <c r="A484" s="4" t="s">
         <v>92</v>
       </c>
@@ -16465,7 +16511,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="156">
+    <row r="485" spans="1:4" ht="149.5">
       <c r="A485" s="4" t="s">
         <v>210</v>
       </c>
@@ -16479,7 +16525,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="84">
+    <row r="486" spans="1:4" ht="69">
       <c r="A486" s="4" t="s">
         <v>210</v>
       </c>
@@ -16493,7 +16539,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="168">
+    <row r="487" spans="1:4" ht="161">
       <c r="A487" s="4" t="s">
         <v>210</v>
       </c>
@@ -16507,7 +16553,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="168">
+    <row r="488" spans="1:4" ht="161">
       <c r="A488" s="4" t="s">
         <v>210</v>
       </c>
@@ -16521,7 +16567,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="168">
+    <row r="489" spans="1:4" ht="161">
       <c r="A489" s="4" t="s">
         <v>86</v>
       </c>
@@ -16535,7 +16581,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="168">
+    <row r="490" spans="1:4" ht="161">
       <c r="A490" s="4" t="s">
         <v>86</v>
       </c>
@@ -16549,7 +16595,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="204">
+    <row r="491" spans="1:4" ht="195.5">
       <c r="A491" s="4" t="s">
         <v>86</v>
       </c>
@@ -16563,7 +16609,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="180">
+    <row r="492" spans="1:4" ht="172.5">
       <c r="A492" s="4" t="s">
         <v>86</v>
       </c>
@@ -16577,7 +16623,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="72">
+    <row r="493" spans="1:4" ht="69">
       <c r="A493" s="4" t="s">
         <v>86</v>
       </c>
@@ -16591,7 +16637,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="180">
+    <row r="494" spans="1:4" ht="172.5">
       <c r="A494" s="4" t="s">
         <v>86</v>
       </c>
@@ -16605,7 +16651,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="204">
+    <row r="495" spans="1:4" ht="184">
       <c r="A495" s="4" t="s">
         <v>86</v>
       </c>
@@ -16619,7 +16665,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="144">
+    <row r="496" spans="1:4" ht="138">
       <c r="A496" s="4" t="s">
         <v>86</v>
       </c>
@@ -16633,7 +16679,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="180">
+    <row r="497" spans="1:4" ht="172.5">
       <c r="A497" s="4" t="s">
         <v>227</v>
       </c>
@@ -16647,7 +16693,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="180">
+    <row r="498" spans="1:4" ht="172.5">
       <c r="A498" s="4" t="s">
         <v>227</v>
       </c>
@@ -16661,7 +16707,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="192">
+    <row r="499" spans="1:4" ht="184">
       <c r="A499" s="4" t="s">
         <v>227</v>
       </c>
@@ -16675,7 +16721,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="168">
+    <row r="500" spans="1:4" ht="149.5">
       <c r="A500" s="4" t="s">
         <v>227</v>
       </c>
@@ -16689,7 +16735,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="168">
+    <row r="501" spans="1:4" ht="161">
       <c r="A501" s="4" t="s">
         <v>227</v>
       </c>
@@ -16703,7 +16749,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="264">
+    <row r="502" spans="1:4" ht="241.5">
       <c r="A502" s="4" t="s">
         <v>261</v>
       </c>
@@ -16717,7 +16763,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="168">
+    <row r="503" spans="1:4" ht="149.5">
       <c r="A503" s="4" t="s">
         <v>261</v>
       </c>
@@ -16731,7 +16777,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="84">
+    <row r="504" spans="1:4" ht="80.5">
       <c r="A504" s="4" t="s">
         <v>180</v>
       </c>
@@ -16745,7 +16791,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="72">
+    <row r="505" spans="1:4" ht="69">
       <c r="A505" s="4" t="s">
         <v>180</v>
       </c>
@@ -16759,7 +16805,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="168">
+    <row r="506" spans="1:4" ht="161">
       <c r="A506" s="4" t="s">
         <v>180</v>
       </c>
@@ -16773,7 +16819,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="144">
+    <row r="507" spans="1:4" ht="138">
       <c r="A507" s="4" t="s">
         <v>180</v>
       </c>
@@ -16787,7 +16833,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="204">
+    <row r="508" spans="1:4" ht="195.5">
       <c r="A508" s="4" t="s">
         <v>216</v>
       </c>
@@ -16801,7 +16847,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="300">
+    <row r="509" spans="1:4" ht="287.5">
       <c r="A509" s="4" t="s">
         <v>145</v>
       </c>
@@ -16815,7 +16861,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="72">
+    <row r="510" spans="1:4" ht="69">
       <c r="A510" s="4" t="s">
         <v>145</v>
       </c>
@@ -16829,7 +16875,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="216">
+    <row r="511" spans="1:4" ht="207">
       <c r="A511" s="4" t="s">
         <v>145</v>
       </c>
@@ -16843,7 +16889,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="180">
+    <row r="512" spans="1:4" ht="161">
       <c r="A512" s="4" t="s">
         <v>145</v>
       </c>
@@ -16857,7 +16903,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="252">
+    <row r="513" spans="1:4" ht="241.5">
       <c r="A513" s="4" t="s">
         <v>145</v>
       </c>
@@ -16871,7 +16917,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="144">
+    <row r="514" spans="1:4" ht="126.5">
       <c r="A514" s="4" t="s">
         <v>145</v>
       </c>
@@ -16885,7 +16931,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="72">
+    <row r="515" spans="1:4" ht="69">
       <c r="A515" s="4" t="s">
         <v>62</v>
       </c>
@@ -16899,7 +16945,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="180">
+    <row r="516" spans="1:4" ht="161">
       <c r="A516" s="4" t="s">
         <v>62</v>
       </c>
@@ -16913,7 +16959,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="204">
+    <row r="517" spans="1:4" ht="195.5">
       <c r="A517" s="4" t="s">
         <v>62</v>
       </c>
@@ -16927,7 +16973,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="180">
+    <row r="518" spans="1:4" ht="172.5">
       <c r="A518" s="4" t="s">
         <v>62</v>
       </c>
@@ -16941,7 +16987,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="180">
+    <row r="519" spans="1:4" ht="172.5">
       <c r="A519" s="4" t="s">
         <v>62</v>
       </c>
@@ -16955,7 +17001,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="192">
+    <row r="520" spans="1:4" ht="184">
       <c r="A520" s="4" t="s">
         <v>62</v>
       </c>
@@ -16969,7 +17015,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="204">
+    <row r="521" spans="1:4" ht="195.5">
       <c r="A521" s="4" t="s">
         <v>62</v>
       </c>
@@ -16983,7 +17029,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="168">
+    <row r="522" spans="1:4" ht="161">
       <c r="A522" s="4" t="s">
         <v>62</v>
       </c>
@@ -16997,7 +17043,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="180">
+    <row r="523" spans="1:4" ht="172.5">
       <c r="A523" s="4" t="s">
         <v>62</v>
       </c>
@@ -17011,7 +17057,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="120">
+    <row r="524" spans="1:4" ht="115">
       <c r="A524" s="4" t="s">
         <v>62</v>
       </c>
@@ -17025,7 +17071,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="144">
+    <row r="525" spans="1:4" ht="138">
       <c r="A525" s="4" t="s">
         <v>62</v>
       </c>
@@ -17039,7 +17085,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="204">
+    <row r="526" spans="1:4" ht="195.5">
       <c r="A526" s="4" t="s">
         <v>140</v>
       </c>
@@ -17053,7 +17099,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="180">
+    <row r="527" spans="1:4" ht="172.5">
       <c r="A527" s="4" t="s">
         <v>140</v>
       </c>
@@ -17067,7 +17113,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="204">
+    <row r="528" spans="1:4" ht="184">
       <c r="A528" s="4" t="s">
         <v>140</v>
       </c>
@@ -17081,7 +17127,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="72">
+    <row r="529" spans="1:4" ht="69">
       <c r="A529" s="4" t="s">
         <v>140</v>
       </c>
@@ -17095,7 +17141,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="216">
+    <row r="530" spans="1:4" ht="207">
       <c r="A530" s="4" t="s">
         <v>140</v>
       </c>
@@ -17109,7 +17155,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="168">
+    <row r="531" spans="1:4" ht="161">
       <c r="A531" s="4" t="s">
         <v>140</v>
       </c>
@@ -17123,7 +17169,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="204">
+    <row r="532" spans="1:4" ht="195.5">
       <c r="A532" s="4" t="s">
         <v>140</v>
       </c>
@@ -17137,7 +17183,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="192">
+    <row r="533" spans="1:4" ht="184">
       <c r="A533" s="4" t="s">
         <v>140</v>
       </c>
@@ -17151,7 +17197,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="168">
+    <row r="534" spans="1:4" ht="161">
       <c r="A534" s="4" t="s">
         <v>140</v>
       </c>
@@ -17165,7 +17211,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="228">
+    <row r="535" spans="1:4" ht="218.5">
       <c r="A535" s="4" t="s">
         <v>265</v>
       </c>
@@ -17179,7 +17225,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="180">
+    <row r="536" spans="1:4" ht="161">
       <c r="A536" s="4" t="s">
         <v>265</v>
       </c>
@@ -17193,7 +17239,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="168">
+    <row r="537" spans="1:4" ht="161">
       <c r="A537" s="4" t="s">
         <v>265</v>
       </c>
@@ -17207,7 +17253,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="228">
+    <row r="538" spans="1:4" ht="218.5">
       <c r="A538" s="4" t="s">
         <v>265</v>
       </c>
@@ -17221,7 +17267,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="180">
+    <row r="539" spans="1:4" ht="172.5">
       <c r="A539" s="4" t="s">
         <v>265</v>
       </c>
@@ -17235,7 +17281,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="216">
+    <row r="540" spans="1:4" ht="207">
       <c r="A540" s="4" t="s">
         <v>42</v>
       </c>
@@ -17249,7 +17295,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="180">
+    <row r="541" spans="1:4" ht="172.5">
       <c r="A541" s="4" t="s">
         <v>42</v>
       </c>
@@ -17263,7 +17309,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="240">
+    <row r="542" spans="1:4" ht="230">
       <c r="A542" s="4" t="s">
         <v>42</v>
       </c>
@@ -17277,7 +17323,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="180">
+    <row r="543" spans="1:4" ht="172.5">
       <c r="A543" s="4" t="s">
         <v>42</v>
       </c>
@@ -17291,7 +17337,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="168">
+    <row r="544" spans="1:4" ht="161">
       <c r="A544" s="4" t="s">
         <v>42</v>
       </c>
@@ -17305,7 +17351,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="168">
+    <row r="545" spans="1:4" ht="161">
       <c r="A545" s="4" t="s">
         <v>42</v>
       </c>
@@ -17319,7 +17365,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="216">
+    <row r="546" spans="1:4" ht="207">
       <c r="A546" s="4" t="s">
         <v>42</v>
       </c>
@@ -17333,7 +17379,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="192">
+    <row r="547" spans="1:4" ht="184">
       <c r="A547" s="4" t="s">
         <v>42</v>
       </c>
@@ -17347,7 +17393,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="168">
+    <row r="548" spans="1:4" ht="149.5">
       <c r="A548" s="4" t="s">
         <v>42</v>
       </c>
@@ -17361,7 +17407,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="180">
+    <row r="549" spans="1:4" ht="172.5">
       <c r="A549" s="4" t="s">
         <v>42</v>
       </c>
@@ -17375,7 +17421,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="240">
+    <row r="550" spans="1:4" ht="230">
       <c r="A550" s="4" t="s">
         <v>111</v>
       </c>
@@ -17389,7 +17435,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="180">
+    <row r="551" spans="1:4" ht="172.5">
       <c r="A551" s="4" t="s">
         <v>111</v>
       </c>
@@ -17403,7 +17449,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="180">
+    <row r="552" spans="1:4" ht="172.5">
       <c r="A552" s="4" t="s">
         <v>111</v>
       </c>
@@ -17417,7 +17463,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="216">
+    <row r="553" spans="1:4" ht="207">
       <c r="A553" s="4" t="s">
         <v>111</v>
       </c>
@@ -17431,7 +17477,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="228">
+    <row r="554" spans="1:4" ht="207">
       <c r="A554" s="4" t="s">
         <v>111</v>
       </c>
@@ -17445,7 +17491,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="180">
+    <row r="555" spans="1:4" ht="172.5">
       <c r="A555" s="4" t="s">
         <v>111</v>
       </c>
@@ -17459,7 +17505,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="216">
+    <row r="556" spans="1:4" ht="207">
       <c r="A556" s="4" t="s">
         <v>111</v>
       </c>
@@ -17473,7 +17519,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="192">
+    <row r="557" spans="1:4" ht="184">
       <c r="A557" s="4" t="s">
         <v>105</v>
       </c>
@@ -17487,7 +17533,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="84">
+    <row r="558" spans="1:4" ht="80.5">
       <c r="A558" s="4" t="s">
         <v>105</v>
       </c>
@@ -17501,7 +17547,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="192">
+    <row r="559" spans="1:4" ht="184">
       <c r="A559" s="4" t="s">
         <v>105</v>
       </c>
@@ -17515,7 +17561,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="180">
+    <row r="560" spans="1:4" ht="172.5">
       <c r="A560" s="4" t="s">
         <v>105</v>
       </c>
@@ -17529,7 +17575,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="204">
+    <row r="561" spans="1:4" ht="195.5">
       <c r="A561" s="4" t="s">
         <v>105</v>
       </c>
@@ -17543,7 +17589,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="72">
+    <row r="562" spans="1:4" ht="69">
       <c r="A562" s="4" t="s">
         <v>105</v>
       </c>
@@ -17557,7 +17603,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="240">
+    <row r="563" spans="1:4" ht="230">
       <c r="A563" s="4" t="s">
         <v>105</v>
       </c>
@@ -17571,7 +17617,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="192">
+    <row r="564" spans="1:4" ht="172.5">
       <c r="A564" s="4" t="s">
         <v>105</v>
       </c>
@@ -17585,7 +17631,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="228">
+    <row r="565" spans="1:4" ht="218.5">
       <c r="A565" s="4" t="s">
         <v>211</v>
       </c>
@@ -17599,7 +17645,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="180">
+    <row r="566" spans="1:4" ht="172.5">
       <c r="A566" s="4" t="s">
         <v>211</v>
       </c>
@@ -17613,7 +17659,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="204">
+    <row r="567" spans="1:4" ht="184">
       <c r="A567" s="4" t="s">
         <v>211</v>
       </c>
@@ -17627,7 +17673,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="192">
+    <row r="568" spans="1:4" ht="172.5">
       <c r="A568" s="4" t="s">
         <v>211</v>
       </c>
@@ -17641,7 +17687,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="84">
+    <row r="569" spans="1:4" ht="69">
       <c r="A569" s="4" t="s">
         <v>211</v>
       </c>
@@ -17655,7 +17701,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="72">
+    <row r="570" spans="1:4" ht="69">
       <c r="A570" s="4" t="s">
         <v>211</v>
       </c>
@@ -17669,7 +17715,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="108">
+    <row r="571" spans="1:4" ht="103.5">
       <c r="A571" s="4" t="s">
         <v>40</v>
       </c>
@@ -17683,7 +17729,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="288">
+    <row r="572" spans="1:4" ht="264.5">
       <c r="A572" s="4" t="s">
         <v>40</v>
       </c>
@@ -17697,7 +17743,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="168">
+    <row r="573" spans="1:4" ht="161">
       <c r="A573" s="4" t="s">
         <v>40</v>
       </c>
@@ -17711,7 +17757,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="192">
+    <row r="574" spans="1:4" ht="184">
       <c r="A574" s="4" t="s">
         <v>40</v>
       </c>
@@ -17725,7 +17771,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="192">
+    <row r="575" spans="1:4" ht="184">
       <c r="A575" s="4" t="s">
         <v>40</v>
       </c>
@@ -17739,7 +17785,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="144">
+    <row r="576" spans="1:4" ht="138">
       <c r="A576" s="4" t="s">
         <v>40</v>
       </c>
@@ -17753,7 +17799,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="168">
+    <row r="577" spans="1:4" ht="161">
       <c r="A577" s="4" t="s">
         <v>123</v>
       </c>
@@ -17767,7 +17813,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="180">
+    <row r="578" spans="1:4" ht="172.5">
       <c r="A578" s="4" t="s">
         <v>123</v>
       </c>
@@ -17781,7 +17827,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="72">
+    <row r="579" spans="1:4" ht="69">
       <c r="A579" s="4" t="s">
         <v>123</v>
       </c>
@@ -17795,7 +17841,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="192">
+    <row r="580" spans="1:4" ht="184">
       <c r="A580" s="4" t="s">
         <v>123</v>
       </c>
@@ -17809,7 +17855,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="180">
+    <row r="581" spans="1:4" ht="172.5">
       <c r="A581" s="4" t="s">
         <v>123</v>
       </c>
@@ -17823,7 +17869,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="180">
+    <row r="582" spans="1:4" ht="172.5">
       <c r="A582" s="4" t="s">
         <v>123</v>
       </c>
@@ -17837,7 +17883,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="204">
+    <row r="583" spans="1:4" ht="184">
       <c r="A583" s="4" t="s">
         <v>123</v>
       </c>
@@ -17851,7 +17897,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="168">
+    <row r="584" spans="1:4" ht="161">
       <c r="A584" s="4" t="s">
         <v>123</v>
       </c>
@@ -17865,7 +17911,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="192">
+    <row r="585" spans="1:4" ht="172.5">
       <c r="A585" s="4" t="s">
         <v>123</v>
       </c>
@@ -17879,7 +17925,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="72">
+    <row r="586" spans="1:4" ht="69">
       <c r="A586" s="4" t="s">
         <v>123</v>
       </c>
@@ -17893,7 +17939,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="132">
+    <row r="587" spans="1:4" ht="126.5">
       <c r="A587" s="4" t="s">
         <v>123</v>
       </c>
@@ -17907,7 +17953,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="240">
+    <row r="588" spans="1:4" ht="230">
       <c r="A588" s="4" t="s">
         <v>198</v>
       </c>
@@ -17921,7 +17967,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="276">
+    <row r="589" spans="1:4" ht="253">
       <c r="A589" s="4" t="s">
         <v>198</v>
       </c>
@@ -17935,7 +17981,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="240">
+    <row r="590" spans="1:4" ht="218.5">
       <c r="A590" s="4" t="s">
         <v>198</v>
       </c>
@@ -17949,7 +17995,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="180">
+    <row r="591" spans="1:4" ht="161">
       <c r="A591" s="4" t="s">
         <v>198</v>
       </c>
@@ -17963,7 +18009,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="204">
+    <row r="592" spans="1:4" ht="195.5">
       <c r="A592" s="4" t="s">
         <v>61</v>
       </c>
@@ -17977,7 +18023,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="180">
+    <row r="593" spans="1:4" ht="172.5">
       <c r="A593" s="4" t="s">
         <v>61</v>
       </c>
@@ -17991,7 +18037,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="60">
+    <row r="594" spans="1:4" ht="57.5">
       <c r="A594" s="4" t="s">
         <v>61</v>
       </c>
@@ -18005,7 +18051,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="72">
+    <row r="595" spans="1:4" ht="69">
       <c r="A595" s="4" t="s">
         <v>61</v>
       </c>
@@ -18019,7 +18065,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="240">
+    <row r="596" spans="1:4" ht="218.5">
       <c r="A596" s="4" t="s">
         <v>61</v>
       </c>
@@ -18033,7 +18079,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="168">
+    <row r="597" spans="1:4" ht="149.5">
       <c r="A597" s="4" t="s">
         <v>61</v>
       </c>
@@ -18047,7 +18093,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="264">
+    <row r="598" spans="1:4" ht="253">
       <c r="A598" s="4" t="s">
         <v>64</v>
       </c>
@@ -18061,7 +18107,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="84">
+    <row r="599" spans="1:4" ht="80.5">
       <c r="A599" s="4" t="s">
         <v>64</v>
       </c>
@@ -18075,7 +18121,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="228">
+    <row r="600" spans="1:4" ht="207">
       <c r="A600" s="4" t="s">
         <v>64</v>
       </c>
@@ -18089,7 +18135,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="180">
+    <row r="601" spans="1:4" ht="161">
       <c r="A601" s="4" t="s">
         <v>64</v>
       </c>
@@ -18117,7 +18163,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="180">
+    <row r="603" spans="1:4" ht="172.5">
       <c r="A603" s="4" t="s">
         <v>64</v>
       </c>
@@ -18131,7 +18177,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="180">
+    <row r="604" spans="1:4" ht="172.5">
       <c r="A604" s="4" t="s">
         <v>64</v>
       </c>
@@ -18145,7 +18191,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="156">
+    <row r="605" spans="1:4" ht="149.5">
       <c r="A605" s="4" t="s">
         <v>64</v>
       </c>
@@ -18159,7 +18205,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="252">
+    <row r="606" spans="1:4" ht="230">
       <c r="A606" s="4" t="s">
         <v>176</v>
       </c>
@@ -18173,7 +18219,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="180">
+    <row r="607" spans="1:4" ht="172.5">
       <c r="A607" s="4" t="s">
         <v>176</v>
       </c>
@@ -18187,7 +18233,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="180">
+    <row r="608" spans="1:4" ht="172.5">
       <c r="A608" s="4" t="s">
         <v>176</v>
       </c>
@@ -18201,7 +18247,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="84">
+    <row r="609" spans="1:4" ht="80.5">
       <c r="A609" s="4" t="s">
         <v>176</v>
       </c>
@@ -18215,7 +18261,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="264">
+    <row r="610" spans="1:4" ht="253">
       <c r="A610" s="4" t="s">
         <v>203</v>
       </c>
@@ -18229,7 +18275,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="216">
+    <row r="611" spans="1:4" ht="195.5">
       <c r="A611" s="4" t="s">
         <v>203</v>
       </c>
@@ -18243,7 +18289,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="336">
+    <row r="612" spans="1:4" ht="322">
       <c r="A612" s="4" t="s">
         <v>203</v>
       </c>
@@ -18257,7 +18303,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="96">
+    <row r="613" spans="1:4" ht="80.5">
       <c r="A613" s="4" t="s">
         <v>203</v>
       </c>
@@ -18271,7 +18317,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="96">
+    <row r="614" spans="1:4" ht="92">
       <c r="A614" s="4" t="s">
         <v>128</v>
       </c>
@@ -18285,7 +18331,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="216">
+    <row r="615" spans="1:4" ht="184">
       <c r="A615" s="4" t="s">
         <v>128</v>
       </c>
@@ -18299,7 +18345,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="168">
+    <row r="616" spans="1:4" ht="149.5">
       <c r="A616" s="4" t="s">
         <v>128</v>
       </c>
@@ -18313,7 +18359,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="180">
+    <row r="617" spans="1:4" ht="161">
       <c r="A617" s="4" t="s">
         <v>128</v>
       </c>
@@ -18327,7 +18373,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="180">
+    <row r="618" spans="1:4" ht="172.5">
       <c r="A618" s="4" t="s">
         <v>128</v>
       </c>
@@ -18341,7 +18387,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="192">
+    <row r="619" spans="1:4" ht="184">
       <c r="A619" s="4" t="s">
         <v>128</v>
       </c>
@@ -18355,7 +18401,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="144">
+    <row r="620" spans="1:4" ht="126.5">
       <c r="A620" s="4" t="s">
         <v>128</v>
       </c>
@@ -18369,7 +18415,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="132">
+    <row r="621" spans="1:4" ht="126.5">
       <c r="A621" s="4" t="s">
         <v>128</v>
       </c>
@@ -18383,7 +18429,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="168">
+    <row r="622" spans="1:4" ht="161">
       <c r="A622" s="4" t="s">
         <v>24</v>
       </c>
@@ -18397,7 +18443,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="180">
+    <row r="623" spans="1:4" ht="161">
       <c r="A623" s="4" t="s">
         <v>24</v>
       </c>
@@ -18411,7 +18457,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="72">
+    <row r="624" spans="1:4" ht="69">
       <c r="A624" s="4" t="s">
         <v>24</v>
       </c>
@@ -18425,7 +18471,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="240">
+    <row r="625" spans="1:4" ht="218.5">
       <c r="A625" s="4" t="s">
         <v>24</v>
       </c>
@@ -18439,7 +18485,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="168">
+    <row r="626" spans="1:4" ht="161">
       <c r="A626" s="4" t="s">
         <v>24</v>
       </c>
@@ -18453,7 +18499,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="204">
+    <row r="627" spans="1:4" ht="184">
       <c r="A627" s="4" t="s">
         <v>24</v>
       </c>
@@ -18467,7 +18513,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="240">
+    <row r="628" spans="1:4" ht="230">
       <c r="A628" s="4" t="s">
         <v>305</v>
       </c>
@@ -18481,7 +18527,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="204">
+    <row r="629" spans="1:4" ht="195.5">
       <c r="A629" s="4" t="s">
         <v>32</v>
       </c>
@@ -18495,7 +18541,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="180">
+    <row r="630" spans="1:4" ht="172.5">
       <c r="A630" s="4" t="s">
         <v>32</v>
       </c>
@@ -18509,7 +18555,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="156">
+    <row r="631" spans="1:4" ht="149.5">
       <c r="A631" s="4" t="s">
         <v>32</v>
       </c>
@@ -18523,7 +18569,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="132">
+    <row r="632" spans="1:4" ht="126.5">
       <c r="A632" s="4" t="s">
         <v>32</v>
       </c>
@@ -18537,7 +18583,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="132">
+    <row r="633" spans="1:4" ht="126.5">
       <c r="A633" s="4" t="s">
         <v>32</v>
       </c>
@@ -18551,7 +18597,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="204">
+    <row r="634" spans="1:4" ht="184">
       <c r="A634" s="4" t="s">
         <v>57</v>
       </c>
@@ -18565,7 +18611,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="180">
+    <row r="635" spans="1:4" ht="172.5">
       <c r="A635" s="4" t="s">
         <v>237</v>
       </c>
@@ -18579,7 +18625,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="72">
+    <row r="636" spans="1:4" ht="69">
       <c r="A636" s="4" t="s">
         <v>237</v>
       </c>
@@ -18593,7 +18639,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="216">
+    <row r="637" spans="1:4" ht="207">
       <c r="A637" s="4" t="s">
         <v>98</v>
       </c>
@@ -18607,7 +18653,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="168">
+    <row r="638" spans="1:4" ht="161">
       <c r="A638" s="4" t="s">
         <v>98</v>
       </c>
@@ -18621,7 +18667,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="180">
+    <row r="639" spans="1:4" ht="172.5">
       <c r="A639" s="4" t="s">
         <v>98</v>
       </c>
@@ -18635,7 +18681,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="180">
+    <row r="640" spans="1:4" ht="172.5">
       <c r="A640" s="4" t="s">
         <v>98</v>
       </c>
@@ -18649,7 +18695,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="192">
+    <row r="641" spans="1:4" ht="184">
       <c r="A641" s="4" t="s">
         <v>122</v>
       </c>
@@ -18663,7 +18709,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="84">
+    <row r="642" spans="1:4" ht="80.5">
       <c r="A642" s="4" t="s">
         <v>122</v>
       </c>
@@ -18677,7 +18723,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="72">
+    <row r="643" spans="1:4" ht="69">
       <c r="A643" s="4" t="s">
         <v>122</v>
       </c>
@@ -18691,7 +18737,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="180">
+    <row r="644" spans="1:4" ht="172.5">
       <c r="A644" s="4" t="s">
         <v>122</v>
       </c>
@@ -18705,7 +18751,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="240">
+    <row r="645" spans="1:4" ht="230">
       <c r="A645" s="4" t="s">
         <v>122</v>
       </c>
@@ -18719,7 +18765,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="192">
+    <row r="646" spans="1:4" ht="184">
       <c r="A646" s="4" t="s">
         <v>122</v>
       </c>
@@ -18733,7 +18779,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="204">
+    <row r="647" spans="1:4" ht="195.5">
       <c r="A647" s="4" t="s">
         <v>122</v>
       </c>
@@ -18747,7 +18793,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="168">
+    <row r="648" spans="1:4" ht="161">
       <c r="A648" s="4" t="s">
         <v>122</v>
       </c>
@@ -18761,7 +18807,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="84">
+    <row r="649" spans="1:4" ht="80.5">
       <c r="A649" s="4" t="s">
         <v>122</v>
       </c>
@@ -18775,7 +18821,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="132">
+    <row r="650" spans="1:4" ht="126.5">
       <c r="A650" s="4" t="s">
         <v>122</v>
       </c>
@@ -18789,7 +18835,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="192">
+    <row r="651" spans="1:4" ht="184">
       <c r="A651" s="4" t="s">
         <v>49</v>
       </c>
@@ -18803,7 +18849,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="228">
+    <row r="652" spans="1:4" ht="207">
       <c r="A652" s="4" t="s">
         <v>49</v>
       </c>
@@ -18817,7 +18863,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="168">
+    <row r="653" spans="1:4" ht="161">
       <c r="A653" s="4" t="s">
         <v>49</v>
       </c>
@@ -18831,7 +18877,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="192">
+    <row r="654" spans="1:4" ht="184">
       <c r="A654" s="4" t="s">
         <v>49</v>
       </c>
@@ -18845,7 +18891,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="180">
+    <row r="655" spans="1:4" ht="172.5">
       <c r="A655" s="4" t="s">
         <v>49</v>
       </c>
@@ -18859,7 +18905,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="180">
+    <row r="656" spans="1:4" ht="172.5">
       <c r="A656" s="4" t="s">
         <v>49</v>
       </c>
@@ -18873,7 +18919,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="216">
+    <row r="657" spans="1:4" ht="195.5">
       <c r="A657" s="4" t="s">
         <v>49</v>
       </c>
@@ -18887,7 +18933,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="658" spans="1:4" ht="204">
+    <row r="658" spans="1:4" ht="184">
       <c r="A658" s="4" t="s">
         <v>49</v>
       </c>
@@ -18901,7 +18947,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="180">
+    <row r="659" spans="1:4" ht="172.5">
       <c r="A659" s="4" t="s">
         <v>49</v>
       </c>
@@ -18915,7 +18961,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="132">
+    <row r="660" spans="1:4" ht="126.5">
       <c r="A660" s="4" t="s">
         <v>49</v>
       </c>
@@ -18928,6 +18974,18 @@
       <c r="D660" s="5" t="s">
         <v>732</v>
       </c>
+    </row>
+    <row r="661" spans="1:4">
+      <c r="A661" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B661" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C661" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D661" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
